--- a/gdrive-util-scripts.xlsx
+++ b/gdrive-util-scripts.xlsx
@@ -4,8 +4,10 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Interface" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="GSUnitValidate" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="GSUnitValidateSheet" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="RenameList" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="TestRename" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="TestUtilObjs" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="GSUnitValidate" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="111">
   <si>
     <t>Rename Files</t>
   </si>
@@ -21,7 +23,10 @@
     <t>User Guide</t>
   </si>
   <si>
-    <t>$Revision: 1.23 $</t>
+    <t>$Revision: 1.31 $</t>
+  </si>
+  <si>
+    <t>Note: Do not add or remove rows or columns on this sheet or the interface will not work.</t>
   </si>
   <si>
     <t>Top Folder Name</t>
@@ -30,10 +35,10 @@
     <t>Top Folder URL:</t>
   </si>
   <si>
-    <t>https://drive.google.com/drive/folders/1xmsAizsROnfiyqFjmM8vZRAbB31OnfMc</t>
-  </si>
-  <si>
-    <t>test-tmp</t>
+    <t>https://drive.google.com/drive/folders/1JGuLMBhle5dgLnw7x_M4xuQDr8lR4Ngg</t>
+  </si>
+  <si>
+    <t>small-test-tmp</t>
   </si>
   <si>
     <t xml:space="preserve">List Folders? </t>
@@ -42,7 +47,7 @@
     <t>yes</t>
   </si>
   <si>
-    <t>If no, then folders won't be listed.</t>
+    <t>If no, then folders won't be listed, but they will still be searched, if not excluded.</t>
   </si>
   <si>
     <t xml:space="preserve">List Files? </t>
@@ -123,7 +128,61 @@
     <t>Select "Undo Rename" in the CustomMenu to reverse the renames in RenameList sheet.</t>
   </si>
   <si>
-    <t>Note: Do not add or remove rows or columns on this sheet or the interface will not work.</t>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>ParentFolder</t>
+  </si>
+  <si>
+    <t>CurrentName</t>
+  </si>
+  <si>
+    <t>NewName</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Renamed</t>
+  </si>
+  <si>
+    <t>L1^bar</t>
+  </si>
+  <si>
+    <t>L1_bar</t>
+  </si>
+  <si>
+    <t>L1:foo</t>
+  </si>
+  <si>
+    <t>L1_foo</t>
+  </si>
+  <si>
+    <t>L1 One/</t>
+  </si>
+  <si>
+    <t>L1_One/</t>
+  </si>
+  <si>
+    <t>L1_this_folder-is-OK/</t>
+  </si>
+  <si>
+    <t>L1_this_is_also_ok</t>
+  </si>
+  <si>
+    <t>L1_this_is_OK</t>
+  </si>
+  <si>
+    <t>L1 three/</t>
+  </si>
+  <si>
+    <t>L1_three/</t>
+  </si>
+  <si>
+    <t>L1 Two/</t>
+  </si>
+  <si>
+    <t>L1_Two/</t>
   </si>
   <si>
     <t>Status</t>
@@ -141,24 +200,144 @@
     <t>Pass</t>
   </si>
   <si>
+    <t>function testRenameClass()</t>
+  </si>
+  <si>
+    <t>function testGetFiles()</t>
+  </si>
+  <si>
+    <t>function testGetRecurse1()</t>
+  </si>
+  <si>
+    <t>function testGetRecurse2()</t>
+  </si>
+  <si>
+    <t>function testGetSomeFiles()</t>
+  </si>
+  <si>
+    <t>function testValidatePass()</t>
+  </si>
+  <si>
+    <t>function testValidateFail()</t>
+  </si>
+  <si>
+    <t>function testGetConfig1()</t>
+  </si>
+  <si>
+    <t>function testGetConfig2()</t>
+  </si>
+  <si>
+    <t>function testGetConfig3()</t>
+  </si>
+  <si>
+    <t>function getFilesUi_1()</t>
+  </si>
+  <si>
+    <t>function getFilesUi_2()</t>
+  </si>
+  <si>
+    <t>function renameFiles_1()</t>
+  </si>
+  <si>
+    <t>function renameFiles_2()</t>
+  </si>
+  <si>
+    <t>function undoFiles_1()</t>
+  </si>
+  <si>
+    <t>function undoFiles_2()</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Asserts</t>
+  </si>
+  <si>
+    <t>function unitUrl2IdStrict_pass()</t>
+  </si>
+  <si>
+    <t>function unitUrl2IdStrict_fail()</t>
+  </si>
+  <si>
+    <t>function unitUrl2Id_pass()</t>
+  </si>
+  <si>
+    <t>function unitUrl2Id_fail()</t>
+  </si>
+  <si>
+    <t>function unitHyper2IdStrict_pass()</t>
+  </si>
+  <si>
+    <t>function unitHyper2IdStrict_fail()</t>
+  </si>
+  <si>
+    <t>function unitHyper2Id_pass()</t>
+  </si>
+  <si>
+    <t>function unitHyper2Id_fail()</t>
+  </si>
+  <si>
+    <t>function unitReplaceSpecial()</t>
+  </si>
+  <si>
+    <t>function unitReplaceMany()</t>
+  </si>
+  <si>
+    <t>function unitReplaceManyTmp()</t>
+  </si>
+  <si>
+    <t>function unitSelectSheet_pass()</t>
+  </si>
+  <si>
+    <t>function unitSelectSheet_fail()</t>
+  </si>
+  <si>
+    <t>function unitException_pass()</t>
+  </si>
+  <si>
+    <t>function unitCreateFolderFile_pass1()</t>
+  </si>
+  <si>
+    <t>function unitCreateFolderFile_pass2()</t>
+  </si>
+  <si>
+    <t>function unitCreateFolderFile_pass3()</t>
+  </si>
+  <si>
+    <t>function unitCreateFolderFile_fail1()</t>
+  </si>
+  <si>
+    <t>function unitCreateFolderFile_fail2()</t>
+  </si>
+  <si>
+    <t>function unitWalkFolderFiles_pass1()</t>
+  </si>
+  <si>
+    <t>function unitWalkFolderFiles_fail1()</t>
+  </si>
+  <si>
     <t>function testCreateSheet()</t>
   </si>
   <si>
     <t>function testAssertsPass()</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
     <t>function testAssertsFail_1()</t>
   </si>
   <si>
     <t>TypeError: pUnit.assertEquals is not a function</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>function testAssertsFail_2()</t>
   </si>
   <si>
@@ -168,16 +347,8 @@
     <t>function testAssertsFail_3()</t>
   </si>
   <si>
-    <t>AssertFail: for Equal. Expected "1" got "5". A Fail is expeced here. [gsst5]</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Asserts</t>
+    <t>AssertFail: for Equal. Expected "1"
+got "5". A Fail is expeced here. [gsst5]</t>
   </si>
 </sst>
 </file>
@@ -214,14 +385,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -239,9 +410,13 @@
       <name val="&quot;Roboto Mono&quot;"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
-    <font/>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -276,14 +451,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBBBBFF"/>
-        <bgColor rgb="FFBBBBFF"/>
+        <fgColor rgb="FFFFBBBB"/>
+        <bgColor rgb="FFFFBBBB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFBBBB"/>
-        <bgColor rgb="FFFFBBBB"/>
+        <fgColor rgb="FFBBBBFF"/>
+        <bgColor rgb="FFBBBBFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -340,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -357,11 +532,13 @@
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -382,22 +559,23 @@
     <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -405,42 +583,48 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,6 +643,14 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -688,178 +880,175 @@
         <v>2</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" ht="17.25" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="14">
         <v>1.0</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="19" t="s">
         <v>24</v>
       </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>26</v>
       </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>28</v>
       </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -872,6 +1061,5745 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="5.86"/>
+    <col customWidth="1" min="2" max="2" width="14.43"/>
+    <col customWidth="1" min="3" max="4" width="19.14"/>
+    <col customWidth="1" min="5" max="5" width="4.57"/>
+    <col customWidth="1" min="6" max="6" width="10.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="27" t="str">
+        <f t="shared" ref="B2:B9" si="1">HYPERLINK("https://drive.google.com/drive/folders/1JGuLMBhle5dgLnw7x_M4xuQDr8lR4Ngg", "small-test-tmp/")</f>
+        <v>small-test-tmp/</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="29" t="str">
+        <f>HYPERLINK("https://drive.google.com/file/d/1crlSgUwwo_uKNFNtA-QkHIOwOCFxzVqV/view?usp=drivesdk", "Id")</f>
+        <v>Id</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>small-test-tmp/</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="29" t="str">
+        <f>HYPERLINK("https://drive.google.com/file/d/1NBc5k8raXJ_r8SOK2ygtKNrWoFdjS62h/view?usp=drivesdk", "Id")</f>
+        <v>Id</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>small-test-tmp/</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="29" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/1buPTSKqCBRHJZWL8IFmlBAb6T1tkmKDc", "Id")</f>
+        <v>Id</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="B5" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>small-test-tmp/</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="29" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/1HF0CsIi7wvXRJV6J_GGIiBV0mk7VKtsN", "Id")</f>
+        <v>Id</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="B6" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>small-test-tmp/</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="29" t="str">
+        <f>HYPERLINK("https://drive.google.com/file/d/1R1UnrTLhT-9MSBINlpsBaY3AydyqAjzK/view?usp=drivesdk", "Id")</f>
+        <v>Id</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="B7" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>small-test-tmp/</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="29" t="str">
+        <f>HYPERLINK("https://drive.google.com/file/d/1Gbom7ZO5hUrnv4onJ57cfwXMJ4xzzfcY/view?usp=drivesdk", "Id")</f>
+        <v>Id</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="B8" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>small-test-tmp/</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="29" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/1L8Ub-zXcYoL6QCz1qwxPB6ylxEi5yQXk", "Id")</f>
+        <v>Id</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>small-test-tmp/</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="29" t="str">
+        <f>HYPERLINK("https://drive.google.com/drive/folders/13wFMVA34xjRWXLyiaEotdE_YQiAc9DTA", "Id")</f>
+        <v>Id</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="F27" s="30"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="F29" s="30"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="F30" s="30"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="F32" s="30"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="F36" s="30"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="F37" s="30"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="F38" s="30"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="F39" s="30"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="F40" s="30"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="F41" s="30"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="F42" s="30"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="F43" s="30"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="F44" s="30"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="F45" s="30"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="F46" s="30"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="30"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="30"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="30"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
+    </row>
+    <row r="118">
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+    </row>
+    <row r="120">
+      <c r="B120" s="30"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+    </row>
+    <row r="122">
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+    </row>
+    <row r="123">
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+    </row>
+    <row r="124">
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+    </row>
+    <row r="125">
+      <c r="B125" s="30"/>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
+    </row>
+    <row r="126">
+      <c r="B126" s="30"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+    </row>
+    <row r="127">
+      <c r="B127" s="30"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="30"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="30"/>
+      <c r="C129" s="30"/>
+      <c r="D129" s="30"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="30"/>
+      <c r="C130" s="30"/>
+      <c r="D130" s="30"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="30"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="30"/>
+    </row>
+    <row r="132">
+      <c r="B132" s="30"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="30"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
+    </row>
+    <row r="134">
+      <c r="B134" s="30"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="30"/>
+    </row>
+    <row r="135">
+      <c r="B135" s="30"/>
+      <c r="C135" s="30"/>
+      <c r="D135" s="30"/>
+    </row>
+    <row r="136">
+      <c r="B136" s="30"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
+    </row>
+    <row r="137">
+      <c r="B137" s="30"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+    </row>
+    <row r="138">
+      <c r="B138" s="30"/>
+      <c r="C138" s="30"/>
+      <c r="D138" s="30"/>
+    </row>
+    <row r="139">
+      <c r="B139" s="30"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="30"/>
+    </row>
+    <row r="140">
+      <c r="B140" s="30"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
+    </row>
+    <row r="141">
+      <c r="B141" s="30"/>
+      <c r="C141" s="30"/>
+      <c r="D141" s="30"/>
+    </row>
+    <row r="142">
+      <c r="B142" s="30"/>
+      <c r="C142" s="30"/>
+      <c r="D142" s="30"/>
+    </row>
+    <row r="143">
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
+    </row>
+    <row r="144">
+      <c r="B144" s="30"/>
+      <c r="C144" s="30"/>
+      <c r="D144" s="30"/>
+    </row>
+    <row r="145">
+      <c r="B145" s="30"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="30"/>
+    </row>
+    <row r="146">
+      <c r="B146" s="30"/>
+      <c r="C146" s="30"/>
+      <c r="D146" s="30"/>
+    </row>
+    <row r="147">
+      <c r="B147" s="30"/>
+      <c r="C147" s="30"/>
+      <c r="D147" s="30"/>
+    </row>
+    <row r="148">
+      <c r="B148" s="30"/>
+      <c r="C148" s="30"/>
+      <c r="D148" s="30"/>
+    </row>
+    <row r="149">
+      <c r="B149" s="30"/>
+      <c r="C149" s="30"/>
+      <c r="D149" s="30"/>
+    </row>
+    <row r="150">
+      <c r="B150" s="30"/>
+      <c r="C150" s="30"/>
+      <c r="D150" s="30"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="30"/>
+      <c r="C151" s="30"/>
+      <c r="D151" s="30"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="30"/>
+      <c r="C152" s="30"/>
+      <c r="D152" s="30"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="30"/>
+      <c r="C153" s="30"/>
+      <c r="D153" s="30"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="30"/>
+      <c r="C154" s="30"/>
+      <c r="D154" s="30"/>
+    </row>
+    <row r="155">
+      <c r="B155" s="30"/>
+      <c r="C155" s="30"/>
+      <c r="D155" s="30"/>
+    </row>
+    <row r="156">
+      <c r="B156" s="30"/>
+      <c r="C156" s="30"/>
+      <c r="D156" s="30"/>
+    </row>
+    <row r="157">
+      <c r="B157" s="30"/>
+      <c r="C157" s="30"/>
+      <c r="D157" s="30"/>
+    </row>
+    <row r="158">
+      <c r="B158" s="30"/>
+      <c r="C158" s="30"/>
+      <c r="D158" s="30"/>
+    </row>
+    <row r="159">
+      <c r="B159" s="30"/>
+      <c r="C159" s="30"/>
+      <c r="D159" s="30"/>
+    </row>
+    <row r="160">
+      <c r="B160" s="30"/>
+      <c r="C160" s="30"/>
+      <c r="D160" s="30"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="30"/>
+      <c r="C161" s="30"/>
+      <c r="D161" s="30"/>
+    </row>
+    <row r="162">
+      <c r="B162" s="30"/>
+      <c r="C162" s="30"/>
+      <c r="D162" s="30"/>
+    </row>
+    <row r="163">
+      <c r="B163" s="30"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
+    </row>
+    <row r="164">
+      <c r="B164" s="30"/>
+      <c r="C164" s="30"/>
+      <c r="D164" s="30"/>
+    </row>
+    <row r="165">
+      <c r="B165" s="30"/>
+      <c r="C165" s="30"/>
+      <c r="D165" s="30"/>
+    </row>
+    <row r="166">
+      <c r="B166" s="30"/>
+      <c r="C166" s="30"/>
+      <c r="D166" s="30"/>
+    </row>
+    <row r="167">
+      <c r="B167" s="30"/>
+      <c r="C167" s="30"/>
+      <c r="D167" s="30"/>
+    </row>
+    <row r="168">
+      <c r="B168" s="30"/>
+      <c r="C168" s="30"/>
+      <c r="D168" s="30"/>
+    </row>
+    <row r="169">
+      <c r="B169" s="30"/>
+      <c r="C169" s="30"/>
+      <c r="D169" s="30"/>
+    </row>
+    <row r="170">
+      <c r="B170" s="30"/>
+      <c r="C170" s="30"/>
+      <c r="D170" s="30"/>
+    </row>
+    <row r="171">
+      <c r="B171" s="30"/>
+      <c r="C171" s="30"/>
+      <c r="D171" s="30"/>
+    </row>
+    <row r="172">
+      <c r="B172" s="30"/>
+      <c r="C172" s="30"/>
+      <c r="D172" s="30"/>
+    </row>
+    <row r="173">
+      <c r="B173" s="30"/>
+      <c r="C173" s="30"/>
+      <c r="D173" s="30"/>
+    </row>
+    <row r="174">
+      <c r="B174" s="30"/>
+      <c r="C174" s="30"/>
+      <c r="D174" s="30"/>
+    </row>
+    <row r="175">
+      <c r="B175" s="30"/>
+      <c r="C175" s="30"/>
+      <c r="D175" s="30"/>
+    </row>
+    <row r="176">
+      <c r="B176" s="30"/>
+      <c r="C176" s="30"/>
+      <c r="D176" s="30"/>
+    </row>
+    <row r="177">
+      <c r="B177" s="30"/>
+      <c r="C177" s="30"/>
+      <c r="D177" s="30"/>
+    </row>
+    <row r="178">
+      <c r="B178" s="30"/>
+      <c r="C178" s="30"/>
+      <c r="D178" s="30"/>
+    </row>
+    <row r="179">
+      <c r="B179" s="30"/>
+      <c r="C179" s="30"/>
+      <c r="D179" s="30"/>
+    </row>
+    <row r="180">
+      <c r="B180" s="30"/>
+      <c r="C180" s="30"/>
+      <c r="D180" s="30"/>
+    </row>
+    <row r="181">
+      <c r="B181" s="30"/>
+      <c r="C181" s="30"/>
+      <c r="D181" s="30"/>
+    </row>
+    <row r="182">
+      <c r="B182" s="30"/>
+      <c r="C182" s="30"/>
+      <c r="D182" s="30"/>
+    </row>
+    <row r="183">
+      <c r="B183" s="30"/>
+      <c r="C183" s="30"/>
+      <c r="D183" s="30"/>
+    </row>
+    <row r="184">
+      <c r="B184" s="30"/>
+      <c r="C184" s="30"/>
+      <c r="D184" s="30"/>
+    </row>
+    <row r="185">
+      <c r="B185" s="30"/>
+      <c r="C185" s="30"/>
+      <c r="D185" s="30"/>
+    </row>
+    <row r="186">
+      <c r="B186" s="30"/>
+      <c r="C186" s="30"/>
+      <c r="D186" s="30"/>
+    </row>
+    <row r="187">
+      <c r="B187" s="30"/>
+      <c r="C187" s="30"/>
+      <c r="D187" s="30"/>
+    </row>
+    <row r="188">
+      <c r="B188" s="30"/>
+      <c r="C188" s="30"/>
+      <c r="D188" s="30"/>
+    </row>
+    <row r="189">
+      <c r="B189" s="30"/>
+      <c r="C189" s="30"/>
+      <c r="D189" s="30"/>
+    </row>
+    <row r="190">
+      <c r="B190" s="30"/>
+      <c r="C190" s="30"/>
+      <c r="D190" s="30"/>
+    </row>
+    <row r="191">
+      <c r="B191" s="30"/>
+      <c r="C191" s="30"/>
+      <c r="D191" s="30"/>
+    </row>
+    <row r="192">
+      <c r="B192" s="30"/>
+      <c r="C192" s="30"/>
+      <c r="D192" s="30"/>
+    </row>
+    <row r="193">
+      <c r="B193" s="30"/>
+      <c r="C193" s="30"/>
+      <c r="D193" s="30"/>
+    </row>
+    <row r="194">
+      <c r="B194" s="30"/>
+      <c r="C194" s="30"/>
+      <c r="D194" s="30"/>
+    </row>
+    <row r="195">
+      <c r="B195" s="30"/>
+      <c r="C195" s="30"/>
+      <c r="D195" s="30"/>
+    </row>
+    <row r="196">
+      <c r="B196" s="30"/>
+      <c r="C196" s="30"/>
+      <c r="D196" s="30"/>
+    </row>
+    <row r="197">
+      <c r="B197" s="30"/>
+      <c r="C197" s="30"/>
+      <c r="D197" s="30"/>
+    </row>
+    <row r="198">
+      <c r="B198" s="30"/>
+      <c r="C198" s="30"/>
+      <c r="D198" s="30"/>
+    </row>
+    <row r="199">
+      <c r="B199" s="30"/>
+      <c r="C199" s="30"/>
+      <c r="D199" s="30"/>
+    </row>
+    <row r="200">
+      <c r="B200" s="30"/>
+      <c r="C200" s="30"/>
+      <c r="D200" s="30"/>
+    </row>
+    <row r="201">
+      <c r="B201" s="30"/>
+      <c r="C201" s="30"/>
+      <c r="D201" s="30"/>
+    </row>
+    <row r="202">
+      <c r="B202" s="30"/>
+      <c r="C202" s="30"/>
+      <c r="D202" s="30"/>
+    </row>
+    <row r="203">
+      <c r="B203" s="30"/>
+      <c r="C203" s="30"/>
+      <c r="D203" s="30"/>
+    </row>
+    <row r="204">
+      <c r="B204" s="30"/>
+      <c r="C204" s="30"/>
+      <c r="D204" s="30"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="30"/>
+      <c r="C205" s="30"/>
+      <c r="D205" s="30"/>
+    </row>
+    <row r="206">
+      <c r="B206" s="30"/>
+      <c r="C206" s="30"/>
+      <c r="D206" s="30"/>
+    </row>
+    <row r="207">
+      <c r="B207" s="30"/>
+      <c r="C207" s="30"/>
+      <c r="D207" s="30"/>
+    </row>
+    <row r="208">
+      <c r="B208" s="30"/>
+      <c r="C208" s="30"/>
+      <c r="D208" s="30"/>
+    </row>
+    <row r="209">
+      <c r="B209" s="30"/>
+      <c r="C209" s="30"/>
+      <c r="D209" s="30"/>
+    </row>
+    <row r="210">
+      <c r="B210" s="30"/>
+      <c r="C210" s="30"/>
+      <c r="D210" s="30"/>
+    </row>
+    <row r="211">
+      <c r="B211" s="30"/>
+      <c r="C211" s="30"/>
+      <c r="D211" s="30"/>
+    </row>
+    <row r="212">
+      <c r="B212" s="30"/>
+      <c r="C212" s="30"/>
+      <c r="D212" s="30"/>
+    </row>
+    <row r="213">
+      <c r="B213" s="30"/>
+      <c r="C213" s="30"/>
+      <c r="D213" s="30"/>
+    </row>
+    <row r="214">
+      <c r="B214" s="30"/>
+      <c r="C214" s="30"/>
+      <c r="D214" s="30"/>
+    </row>
+    <row r="215">
+      <c r="B215" s="30"/>
+      <c r="C215" s="30"/>
+      <c r="D215" s="30"/>
+    </row>
+    <row r="216">
+      <c r="B216" s="30"/>
+      <c r="C216" s="30"/>
+      <c r="D216" s="30"/>
+    </row>
+    <row r="217">
+      <c r="B217" s="30"/>
+      <c r="C217" s="30"/>
+      <c r="D217" s="30"/>
+    </row>
+    <row r="218">
+      <c r="B218" s="30"/>
+      <c r="C218" s="30"/>
+      <c r="D218" s="30"/>
+    </row>
+    <row r="219">
+      <c r="B219" s="30"/>
+      <c r="C219" s="30"/>
+      <c r="D219" s="30"/>
+    </row>
+    <row r="220">
+      <c r="B220" s="30"/>
+      <c r="C220" s="30"/>
+      <c r="D220" s="30"/>
+    </row>
+    <row r="221">
+      <c r="B221" s="30"/>
+      <c r="C221" s="30"/>
+      <c r="D221" s="30"/>
+    </row>
+    <row r="222">
+      <c r="B222" s="30"/>
+      <c r="C222" s="30"/>
+      <c r="D222" s="30"/>
+    </row>
+    <row r="223">
+      <c r="B223" s="30"/>
+      <c r="C223" s="30"/>
+      <c r="D223" s="30"/>
+    </row>
+    <row r="224">
+      <c r="B224" s="30"/>
+      <c r="C224" s="30"/>
+      <c r="D224" s="30"/>
+    </row>
+    <row r="225">
+      <c r="B225" s="30"/>
+      <c r="C225" s="30"/>
+      <c r="D225" s="30"/>
+    </row>
+    <row r="226">
+      <c r="B226" s="30"/>
+      <c r="C226" s="30"/>
+      <c r="D226" s="30"/>
+    </row>
+    <row r="227">
+      <c r="B227" s="30"/>
+      <c r="C227" s="30"/>
+      <c r="D227" s="30"/>
+    </row>
+    <row r="228">
+      <c r="B228" s="30"/>
+      <c r="C228" s="30"/>
+      <c r="D228" s="30"/>
+    </row>
+    <row r="229">
+      <c r="B229" s="30"/>
+      <c r="C229" s="30"/>
+      <c r="D229" s="30"/>
+    </row>
+    <row r="230">
+      <c r="B230" s="30"/>
+      <c r="C230" s="30"/>
+      <c r="D230" s="30"/>
+    </row>
+    <row r="231">
+      <c r="B231" s="30"/>
+      <c r="C231" s="30"/>
+      <c r="D231" s="30"/>
+    </row>
+    <row r="232">
+      <c r="B232" s="30"/>
+      <c r="C232" s="30"/>
+      <c r="D232" s="30"/>
+    </row>
+    <row r="233">
+      <c r="B233" s="30"/>
+      <c r="C233" s="30"/>
+      <c r="D233" s="30"/>
+    </row>
+    <row r="234">
+      <c r="B234" s="30"/>
+      <c r="C234" s="30"/>
+      <c r="D234" s="30"/>
+    </row>
+    <row r="235">
+      <c r="B235" s="30"/>
+      <c r="C235" s="30"/>
+      <c r="D235" s="30"/>
+    </row>
+    <row r="236">
+      <c r="B236" s="30"/>
+      <c r="C236" s="30"/>
+      <c r="D236" s="30"/>
+    </row>
+    <row r="237">
+      <c r="B237" s="30"/>
+      <c r="C237" s="30"/>
+      <c r="D237" s="30"/>
+    </row>
+    <row r="238">
+      <c r="B238" s="30"/>
+      <c r="C238" s="30"/>
+      <c r="D238" s="30"/>
+    </row>
+    <row r="239">
+      <c r="B239" s="30"/>
+      <c r="C239" s="30"/>
+      <c r="D239" s="30"/>
+    </row>
+    <row r="240">
+      <c r="B240" s="30"/>
+      <c r="C240" s="30"/>
+      <c r="D240" s="30"/>
+    </row>
+    <row r="241">
+      <c r="B241" s="30"/>
+      <c r="C241" s="30"/>
+      <c r="D241" s="30"/>
+    </row>
+    <row r="242">
+      <c r="B242" s="30"/>
+      <c r="C242" s="30"/>
+      <c r="D242" s="30"/>
+    </row>
+    <row r="243">
+      <c r="B243" s="30"/>
+      <c r="C243" s="30"/>
+      <c r="D243" s="30"/>
+    </row>
+    <row r="244">
+      <c r="B244" s="30"/>
+      <c r="C244" s="30"/>
+      <c r="D244" s="30"/>
+    </row>
+    <row r="245">
+      <c r="B245" s="30"/>
+      <c r="C245" s="30"/>
+      <c r="D245" s="30"/>
+    </row>
+    <row r="246">
+      <c r="B246" s="30"/>
+      <c r="C246" s="30"/>
+      <c r="D246" s="30"/>
+    </row>
+    <row r="247">
+      <c r="B247" s="30"/>
+      <c r="C247" s="30"/>
+      <c r="D247" s="30"/>
+    </row>
+    <row r="248">
+      <c r="B248" s="30"/>
+      <c r="C248" s="30"/>
+      <c r="D248" s="30"/>
+    </row>
+    <row r="249">
+      <c r="B249" s="30"/>
+      <c r="C249" s="30"/>
+      <c r="D249" s="30"/>
+    </row>
+    <row r="250">
+      <c r="B250" s="30"/>
+      <c r="C250" s="30"/>
+      <c r="D250" s="30"/>
+    </row>
+    <row r="251">
+      <c r="B251" s="30"/>
+      <c r="C251" s="30"/>
+      <c r="D251" s="30"/>
+    </row>
+    <row r="252">
+      <c r="B252" s="30"/>
+      <c r="C252" s="30"/>
+      <c r="D252" s="30"/>
+    </row>
+    <row r="253">
+      <c r="B253" s="30"/>
+      <c r="C253" s="30"/>
+      <c r="D253" s="30"/>
+    </row>
+    <row r="254">
+      <c r="B254" s="30"/>
+      <c r="C254" s="30"/>
+      <c r="D254" s="30"/>
+    </row>
+    <row r="255">
+      <c r="B255" s="30"/>
+      <c r="C255" s="30"/>
+      <c r="D255" s="30"/>
+    </row>
+    <row r="256">
+      <c r="B256" s="30"/>
+      <c r="C256" s="30"/>
+      <c r="D256" s="30"/>
+    </row>
+    <row r="257">
+      <c r="B257" s="30"/>
+      <c r="C257" s="30"/>
+      <c r="D257" s="30"/>
+    </row>
+    <row r="258">
+      <c r="B258" s="30"/>
+      <c r="C258" s="30"/>
+      <c r="D258" s="30"/>
+    </row>
+    <row r="259">
+      <c r="B259" s="30"/>
+      <c r="C259" s="30"/>
+      <c r="D259" s="30"/>
+    </row>
+    <row r="260">
+      <c r="B260" s="30"/>
+      <c r="C260" s="30"/>
+      <c r="D260" s="30"/>
+    </row>
+    <row r="261">
+      <c r="B261" s="30"/>
+      <c r="C261" s="30"/>
+      <c r="D261" s="30"/>
+    </row>
+    <row r="262">
+      <c r="B262" s="30"/>
+      <c r="C262" s="30"/>
+      <c r="D262" s="30"/>
+    </row>
+    <row r="263">
+      <c r="B263" s="30"/>
+      <c r="C263" s="30"/>
+      <c r="D263" s="30"/>
+    </row>
+    <row r="264">
+      <c r="B264" s="30"/>
+      <c r="C264" s="30"/>
+      <c r="D264" s="30"/>
+    </row>
+    <row r="265">
+      <c r="B265" s="30"/>
+      <c r="C265" s="30"/>
+      <c r="D265" s="30"/>
+    </row>
+    <row r="266">
+      <c r="B266" s="30"/>
+      <c r="C266" s="30"/>
+      <c r="D266" s="30"/>
+    </row>
+    <row r="267">
+      <c r="B267" s="30"/>
+      <c r="C267" s="30"/>
+      <c r="D267" s="30"/>
+    </row>
+    <row r="268">
+      <c r="B268" s="30"/>
+      <c r="C268" s="30"/>
+      <c r="D268" s="30"/>
+    </row>
+    <row r="269">
+      <c r="B269" s="30"/>
+      <c r="C269" s="30"/>
+      <c r="D269" s="30"/>
+    </row>
+    <row r="270">
+      <c r="B270" s="30"/>
+      <c r="C270" s="30"/>
+      <c r="D270" s="30"/>
+    </row>
+    <row r="271">
+      <c r="B271" s="30"/>
+      <c r="C271" s="30"/>
+      <c r="D271" s="30"/>
+    </row>
+    <row r="272">
+      <c r="B272" s="30"/>
+      <c r="C272" s="30"/>
+      <c r="D272" s="30"/>
+    </row>
+    <row r="273">
+      <c r="B273" s="30"/>
+      <c r="C273" s="30"/>
+      <c r="D273" s="30"/>
+    </row>
+    <row r="274">
+      <c r="B274" s="30"/>
+      <c r="C274" s="30"/>
+      <c r="D274" s="30"/>
+    </row>
+    <row r="275">
+      <c r="B275" s="30"/>
+      <c r="C275" s="30"/>
+      <c r="D275" s="30"/>
+    </row>
+    <row r="276">
+      <c r="B276" s="30"/>
+      <c r="C276" s="30"/>
+      <c r="D276" s="30"/>
+    </row>
+    <row r="277">
+      <c r="B277" s="30"/>
+      <c r="C277" s="30"/>
+      <c r="D277" s="30"/>
+    </row>
+    <row r="278">
+      <c r="B278" s="30"/>
+      <c r="C278" s="30"/>
+      <c r="D278" s="30"/>
+    </row>
+    <row r="279">
+      <c r="B279" s="30"/>
+      <c r="C279" s="30"/>
+      <c r="D279" s="30"/>
+    </row>
+    <row r="280">
+      <c r="B280" s="30"/>
+      <c r="C280" s="30"/>
+      <c r="D280" s="30"/>
+    </row>
+    <row r="281">
+      <c r="B281" s="30"/>
+      <c r="C281" s="30"/>
+      <c r="D281" s="30"/>
+    </row>
+    <row r="282">
+      <c r="B282" s="30"/>
+      <c r="C282" s="30"/>
+      <c r="D282" s="30"/>
+    </row>
+    <row r="283">
+      <c r="B283" s="30"/>
+      <c r="C283" s="30"/>
+      <c r="D283" s="30"/>
+    </row>
+    <row r="284">
+      <c r="B284" s="30"/>
+      <c r="C284" s="30"/>
+      <c r="D284" s="30"/>
+    </row>
+    <row r="285">
+      <c r="B285" s="30"/>
+      <c r="C285" s="30"/>
+      <c r="D285" s="30"/>
+    </row>
+    <row r="286">
+      <c r="B286" s="30"/>
+      <c r="C286" s="30"/>
+      <c r="D286" s="30"/>
+    </row>
+    <row r="287">
+      <c r="B287" s="30"/>
+      <c r="C287" s="30"/>
+      <c r="D287" s="30"/>
+    </row>
+    <row r="288">
+      <c r="B288" s="30"/>
+      <c r="C288" s="30"/>
+      <c r="D288" s="30"/>
+    </row>
+    <row r="289">
+      <c r="B289" s="30"/>
+      <c r="C289" s="30"/>
+      <c r="D289" s="30"/>
+    </row>
+    <row r="290">
+      <c r="B290" s="30"/>
+      <c r="C290" s="30"/>
+      <c r="D290" s="30"/>
+    </row>
+    <row r="291">
+      <c r="B291" s="30"/>
+      <c r="C291" s="30"/>
+      <c r="D291" s="30"/>
+    </row>
+    <row r="292">
+      <c r="B292" s="30"/>
+      <c r="C292" s="30"/>
+      <c r="D292" s="30"/>
+    </row>
+    <row r="293">
+      <c r="B293" s="30"/>
+      <c r="C293" s="30"/>
+      <c r="D293" s="30"/>
+    </row>
+    <row r="294">
+      <c r="B294" s="30"/>
+      <c r="C294" s="30"/>
+      <c r="D294" s="30"/>
+    </row>
+    <row r="295">
+      <c r="B295" s="30"/>
+      <c r="C295" s="30"/>
+      <c r="D295" s="30"/>
+    </row>
+    <row r="296">
+      <c r="B296" s="30"/>
+      <c r="C296" s="30"/>
+      <c r="D296" s="30"/>
+    </row>
+    <row r="297">
+      <c r="B297" s="30"/>
+      <c r="C297" s="30"/>
+      <c r="D297" s="30"/>
+    </row>
+    <row r="298">
+      <c r="B298" s="30"/>
+      <c r="C298" s="30"/>
+      <c r="D298" s="30"/>
+    </row>
+    <row r="299">
+      <c r="B299" s="30"/>
+      <c r="C299" s="30"/>
+      <c r="D299" s="30"/>
+    </row>
+    <row r="300">
+      <c r="B300" s="30"/>
+      <c r="C300" s="30"/>
+      <c r="D300" s="30"/>
+    </row>
+    <row r="301">
+      <c r="B301" s="30"/>
+      <c r="C301" s="30"/>
+      <c r="D301" s="30"/>
+    </row>
+    <row r="302">
+      <c r="B302" s="30"/>
+      <c r="C302" s="30"/>
+      <c r="D302" s="30"/>
+    </row>
+    <row r="303">
+      <c r="B303" s="30"/>
+      <c r="C303" s="30"/>
+      <c r="D303" s="30"/>
+    </row>
+    <row r="304">
+      <c r="B304" s="30"/>
+      <c r="C304" s="30"/>
+      <c r="D304" s="30"/>
+    </row>
+    <row r="305">
+      <c r="B305" s="30"/>
+      <c r="C305" s="30"/>
+      <c r="D305" s="30"/>
+    </row>
+    <row r="306">
+      <c r="B306" s="30"/>
+      <c r="C306" s="30"/>
+      <c r="D306" s="30"/>
+    </row>
+    <row r="307">
+      <c r="B307" s="30"/>
+      <c r="C307" s="30"/>
+      <c r="D307" s="30"/>
+    </row>
+    <row r="308">
+      <c r="B308" s="30"/>
+      <c r="C308" s="30"/>
+      <c r="D308" s="30"/>
+    </row>
+    <row r="309">
+      <c r="B309" s="30"/>
+      <c r="C309" s="30"/>
+      <c r="D309" s="30"/>
+    </row>
+    <row r="310">
+      <c r="B310" s="30"/>
+      <c r="C310" s="30"/>
+      <c r="D310" s="30"/>
+    </row>
+    <row r="311">
+      <c r="B311" s="30"/>
+      <c r="C311" s="30"/>
+      <c r="D311" s="30"/>
+    </row>
+    <row r="312">
+      <c r="B312" s="30"/>
+      <c r="C312" s="30"/>
+      <c r="D312" s="30"/>
+    </row>
+    <row r="313">
+      <c r="B313" s="30"/>
+      <c r="C313" s="30"/>
+      <c r="D313" s="30"/>
+    </row>
+    <row r="314">
+      <c r="B314" s="30"/>
+      <c r="C314" s="30"/>
+      <c r="D314" s="30"/>
+    </row>
+    <row r="315">
+      <c r="B315" s="30"/>
+      <c r="C315" s="30"/>
+      <c r="D315" s="30"/>
+    </row>
+    <row r="316">
+      <c r="B316" s="30"/>
+      <c r="C316" s="30"/>
+      <c r="D316" s="30"/>
+    </row>
+    <row r="317">
+      <c r="B317" s="30"/>
+      <c r="C317" s="30"/>
+      <c r="D317" s="30"/>
+    </row>
+    <row r="318">
+      <c r="B318" s="30"/>
+      <c r="C318" s="30"/>
+      <c r="D318" s="30"/>
+    </row>
+    <row r="319">
+      <c r="B319" s="30"/>
+      <c r="C319" s="30"/>
+      <c r="D319" s="30"/>
+    </row>
+    <row r="320">
+      <c r="B320" s="30"/>
+      <c r="C320" s="30"/>
+      <c r="D320" s="30"/>
+    </row>
+    <row r="321">
+      <c r="B321" s="30"/>
+      <c r="C321" s="30"/>
+      <c r="D321" s="30"/>
+    </row>
+    <row r="322">
+      <c r="B322" s="30"/>
+      <c r="C322" s="30"/>
+      <c r="D322" s="30"/>
+    </row>
+    <row r="323">
+      <c r="B323" s="30"/>
+      <c r="C323" s="30"/>
+      <c r="D323" s="30"/>
+    </row>
+    <row r="324">
+      <c r="B324" s="30"/>
+      <c r="C324" s="30"/>
+      <c r="D324" s="30"/>
+    </row>
+    <row r="325">
+      <c r="B325" s="30"/>
+      <c r="C325" s="30"/>
+      <c r="D325" s="30"/>
+    </row>
+    <row r="326">
+      <c r="B326" s="30"/>
+      <c r="C326" s="30"/>
+      <c r="D326" s="30"/>
+    </row>
+    <row r="327">
+      <c r="B327" s="30"/>
+      <c r="C327" s="30"/>
+      <c r="D327" s="30"/>
+    </row>
+    <row r="328">
+      <c r="B328" s="30"/>
+      <c r="C328" s="30"/>
+      <c r="D328" s="30"/>
+    </row>
+    <row r="329">
+      <c r="B329" s="30"/>
+      <c r="C329" s="30"/>
+      <c r="D329" s="30"/>
+    </row>
+    <row r="330">
+      <c r="B330" s="30"/>
+      <c r="C330" s="30"/>
+      <c r="D330" s="30"/>
+    </row>
+    <row r="331">
+      <c r="B331" s="30"/>
+      <c r="C331" s="30"/>
+      <c r="D331" s="30"/>
+    </row>
+    <row r="332">
+      <c r="B332" s="30"/>
+      <c r="C332" s="30"/>
+      <c r="D332" s="30"/>
+    </row>
+    <row r="333">
+      <c r="B333" s="30"/>
+      <c r="C333" s="30"/>
+      <c r="D333" s="30"/>
+    </row>
+    <row r="334">
+      <c r="B334" s="30"/>
+      <c r="C334" s="30"/>
+      <c r="D334" s="30"/>
+    </row>
+    <row r="335">
+      <c r="B335" s="30"/>
+      <c r="C335" s="30"/>
+      <c r="D335" s="30"/>
+    </row>
+    <row r="336">
+      <c r="B336" s="30"/>
+      <c r="C336" s="30"/>
+      <c r="D336" s="30"/>
+    </row>
+    <row r="337">
+      <c r="B337" s="30"/>
+      <c r="C337" s="30"/>
+      <c r="D337" s="30"/>
+    </row>
+    <row r="338">
+      <c r="B338" s="30"/>
+      <c r="C338" s="30"/>
+      <c r="D338" s="30"/>
+    </row>
+    <row r="339">
+      <c r="B339" s="30"/>
+      <c r="C339" s="30"/>
+      <c r="D339" s="30"/>
+    </row>
+    <row r="340">
+      <c r="B340" s="30"/>
+      <c r="C340" s="30"/>
+      <c r="D340" s="30"/>
+    </row>
+    <row r="341">
+      <c r="B341" s="30"/>
+      <c r="C341" s="30"/>
+      <c r="D341" s="30"/>
+    </row>
+    <row r="342">
+      <c r="B342" s="30"/>
+      <c r="C342" s="30"/>
+      <c r="D342" s="30"/>
+    </row>
+    <row r="343">
+      <c r="B343" s="30"/>
+      <c r="C343" s="30"/>
+      <c r="D343" s="30"/>
+    </row>
+    <row r="344">
+      <c r="B344" s="30"/>
+      <c r="C344" s="30"/>
+      <c r="D344" s="30"/>
+    </row>
+    <row r="345">
+      <c r="B345" s="30"/>
+      <c r="C345" s="30"/>
+      <c r="D345" s="30"/>
+    </row>
+    <row r="346">
+      <c r="B346" s="30"/>
+      <c r="C346" s="30"/>
+      <c r="D346" s="30"/>
+    </row>
+    <row r="347">
+      <c r="B347" s="30"/>
+      <c r="C347" s="30"/>
+      <c r="D347" s="30"/>
+    </row>
+    <row r="348">
+      <c r="B348" s="30"/>
+      <c r="C348" s="30"/>
+      <c r="D348" s="30"/>
+    </row>
+    <row r="349">
+      <c r="B349" s="30"/>
+      <c r="C349" s="30"/>
+      <c r="D349" s="30"/>
+    </row>
+    <row r="350">
+      <c r="B350" s="30"/>
+      <c r="C350" s="30"/>
+      <c r="D350" s="30"/>
+    </row>
+    <row r="351">
+      <c r="B351" s="30"/>
+      <c r="C351" s="30"/>
+      <c r="D351" s="30"/>
+    </row>
+    <row r="352">
+      <c r="B352" s="30"/>
+      <c r="C352" s="30"/>
+      <c r="D352" s="30"/>
+    </row>
+    <row r="353">
+      <c r="B353" s="30"/>
+      <c r="C353" s="30"/>
+      <c r="D353" s="30"/>
+    </row>
+    <row r="354">
+      <c r="B354" s="30"/>
+      <c r="C354" s="30"/>
+      <c r="D354" s="30"/>
+    </row>
+    <row r="355">
+      <c r="B355" s="30"/>
+      <c r="C355" s="30"/>
+      <c r="D355" s="30"/>
+    </row>
+    <row r="356">
+      <c r="B356" s="30"/>
+      <c r="C356" s="30"/>
+      <c r="D356" s="30"/>
+    </row>
+    <row r="357">
+      <c r="B357" s="30"/>
+      <c r="C357" s="30"/>
+      <c r="D357" s="30"/>
+    </row>
+    <row r="358">
+      <c r="B358" s="30"/>
+      <c r="C358" s="30"/>
+      <c r="D358" s="30"/>
+    </row>
+    <row r="359">
+      <c r="B359" s="30"/>
+      <c r="C359" s="30"/>
+      <c r="D359" s="30"/>
+    </row>
+    <row r="360">
+      <c r="B360" s="30"/>
+      <c r="C360" s="30"/>
+      <c r="D360" s="30"/>
+    </row>
+    <row r="361">
+      <c r="B361" s="30"/>
+      <c r="C361" s="30"/>
+      <c r="D361" s="30"/>
+    </row>
+    <row r="362">
+      <c r="B362" s="30"/>
+      <c r="C362" s="30"/>
+      <c r="D362" s="30"/>
+    </row>
+    <row r="363">
+      <c r="B363" s="30"/>
+      <c r="C363" s="30"/>
+      <c r="D363" s="30"/>
+    </row>
+    <row r="364">
+      <c r="B364" s="30"/>
+      <c r="C364" s="30"/>
+      <c r="D364" s="30"/>
+    </row>
+    <row r="365">
+      <c r="B365" s="30"/>
+      <c r="C365" s="30"/>
+      <c r="D365" s="30"/>
+    </row>
+    <row r="366">
+      <c r="B366" s="30"/>
+      <c r="C366" s="30"/>
+      <c r="D366" s="30"/>
+    </row>
+    <row r="367">
+      <c r="B367" s="30"/>
+      <c r="C367" s="30"/>
+      <c r="D367" s="30"/>
+    </row>
+    <row r="368">
+      <c r="B368" s="30"/>
+      <c r="C368" s="30"/>
+      <c r="D368" s="30"/>
+    </row>
+    <row r="369">
+      <c r="B369" s="30"/>
+      <c r="C369" s="30"/>
+      <c r="D369" s="30"/>
+    </row>
+    <row r="370">
+      <c r="B370" s="30"/>
+      <c r="C370" s="30"/>
+      <c r="D370" s="30"/>
+    </row>
+    <row r="371">
+      <c r="B371" s="30"/>
+      <c r="C371" s="30"/>
+      <c r="D371" s="30"/>
+    </row>
+    <row r="372">
+      <c r="B372" s="30"/>
+      <c r="C372" s="30"/>
+      <c r="D372" s="30"/>
+    </row>
+    <row r="373">
+      <c r="B373" s="30"/>
+      <c r="C373" s="30"/>
+      <c r="D373" s="30"/>
+    </row>
+    <row r="374">
+      <c r="B374" s="30"/>
+      <c r="C374" s="30"/>
+      <c r="D374" s="30"/>
+    </row>
+    <row r="375">
+      <c r="B375" s="30"/>
+      <c r="C375" s="30"/>
+      <c r="D375" s="30"/>
+    </row>
+    <row r="376">
+      <c r="B376" s="30"/>
+      <c r="C376" s="30"/>
+      <c r="D376" s="30"/>
+    </row>
+    <row r="377">
+      <c r="B377" s="30"/>
+      <c r="C377" s="30"/>
+      <c r="D377" s="30"/>
+    </row>
+    <row r="378">
+      <c r="B378" s="30"/>
+      <c r="C378" s="30"/>
+      <c r="D378" s="30"/>
+    </row>
+    <row r="379">
+      <c r="B379" s="30"/>
+      <c r="C379" s="30"/>
+      <c r="D379" s="30"/>
+    </row>
+    <row r="380">
+      <c r="B380" s="30"/>
+      <c r="C380" s="30"/>
+      <c r="D380" s="30"/>
+    </row>
+    <row r="381">
+      <c r="B381" s="30"/>
+      <c r="C381" s="30"/>
+      <c r="D381" s="30"/>
+    </row>
+    <row r="382">
+      <c r="B382" s="30"/>
+      <c r="C382" s="30"/>
+      <c r="D382" s="30"/>
+    </row>
+    <row r="383">
+      <c r="B383" s="30"/>
+      <c r="C383" s="30"/>
+      <c r="D383" s="30"/>
+    </row>
+    <row r="384">
+      <c r="B384" s="30"/>
+      <c r="C384" s="30"/>
+      <c r="D384" s="30"/>
+    </row>
+    <row r="385">
+      <c r="B385" s="30"/>
+      <c r="C385" s="30"/>
+      <c r="D385" s="30"/>
+    </row>
+    <row r="386">
+      <c r="B386" s="30"/>
+      <c r="C386" s="30"/>
+      <c r="D386" s="30"/>
+    </row>
+    <row r="387">
+      <c r="B387" s="30"/>
+      <c r="C387" s="30"/>
+      <c r="D387" s="30"/>
+    </row>
+    <row r="388">
+      <c r="B388" s="30"/>
+      <c r="C388" s="30"/>
+      <c r="D388" s="30"/>
+    </row>
+    <row r="389">
+      <c r="B389" s="30"/>
+      <c r="C389" s="30"/>
+      <c r="D389" s="30"/>
+    </row>
+    <row r="390">
+      <c r="B390" s="30"/>
+      <c r="C390" s="30"/>
+      <c r="D390" s="30"/>
+    </row>
+    <row r="391">
+      <c r="B391" s="30"/>
+      <c r="C391" s="30"/>
+      <c r="D391" s="30"/>
+    </row>
+    <row r="392">
+      <c r="B392" s="30"/>
+      <c r="C392" s="30"/>
+      <c r="D392" s="30"/>
+    </row>
+    <row r="393">
+      <c r="B393" s="30"/>
+      <c r="C393" s="30"/>
+      <c r="D393" s="30"/>
+    </row>
+    <row r="394">
+      <c r="B394" s="30"/>
+      <c r="C394" s="30"/>
+      <c r="D394" s="30"/>
+    </row>
+    <row r="395">
+      <c r="B395" s="30"/>
+      <c r="C395" s="30"/>
+      <c r="D395" s="30"/>
+    </row>
+    <row r="396">
+      <c r="B396" s="30"/>
+      <c r="C396" s="30"/>
+      <c r="D396" s="30"/>
+    </row>
+    <row r="397">
+      <c r="B397" s="30"/>
+      <c r="C397" s="30"/>
+      <c r="D397" s="30"/>
+    </row>
+    <row r="398">
+      <c r="B398" s="30"/>
+      <c r="C398" s="30"/>
+      <c r="D398" s="30"/>
+    </row>
+    <row r="399">
+      <c r="B399" s="30"/>
+      <c r="C399" s="30"/>
+      <c r="D399" s="30"/>
+    </row>
+    <row r="400">
+      <c r="B400" s="30"/>
+      <c r="C400" s="30"/>
+      <c r="D400" s="30"/>
+    </row>
+    <row r="401">
+      <c r="B401" s="30"/>
+      <c r="C401" s="30"/>
+      <c r="D401" s="30"/>
+    </row>
+    <row r="402">
+      <c r="B402" s="30"/>
+      <c r="C402" s="30"/>
+      <c r="D402" s="30"/>
+    </row>
+    <row r="403">
+      <c r="B403" s="30"/>
+      <c r="C403" s="30"/>
+      <c r="D403" s="30"/>
+    </row>
+    <row r="404">
+      <c r="B404" s="30"/>
+      <c r="C404" s="30"/>
+      <c r="D404" s="30"/>
+    </row>
+    <row r="405">
+      <c r="B405" s="30"/>
+      <c r="C405" s="30"/>
+      <c r="D405" s="30"/>
+    </row>
+    <row r="406">
+      <c r="B406" s="30"/>
+      <c r="C406" s="30"/>
+      <c r="D406" s="30"/>
+    </row>
+    <row r="407">
+      <c r="B407" s="30"/>
+      <c r="C407" s="30"/>
+      <c r="D407" s="30"/>
+    </row>
+    <row r="408">
+      <c r="B408" s="30"/>
+      <c r="C408" s="30"/>
+      <c r="D408" s="30"/>
+    </row>
+    <row r="409">
+      <c r="B409" s="30"/>
+      <c r="C409" s="30"/>
+      <c r="D409" s="30"/>
+    </row>
+    <row r="410">
+      <c r="B410" s="30"/>
+      <c r="C410" s="30"/>
+      <c r="D410" s="30"/>
+    </row>
+    <row r="411">
+      <c r="B411" s="30"/>
+      <c r="C411" s="30"/>
+      <c r="D411" s="30"/>
+    </row>
+    <row r="412">
+      <c r="B412" s="30"/>
+      <c r="C412" s="30"/>
+      <c r="D412" s="30"/>
+    </row>
+    <row r="413">
+      <c r="B413" s="30"/>
+      <c r="C413" s="30"/>
+      <c r="D413" s="30"/>
+    </row>
+    <row r="414">
+      <c r="B414" s="30"/>
+      <c r="C414" s="30"/>
+      <c r="D414" s="30"/>
+    </row>
+    <row r="415">
+      <c r="B415" s="30"/>
+      <c r="C415" s="30"/>
+      <c r="D415" s="30"/>
+    </row>
+    <row r="416">
+      <c r="B416" s="30"/>
+      <c r="C416" s="30"/>
+      <c r="D416" s="30"/>
+    </row>
+    <row r="417">
+      <c r="B417" s="30"/>
+      <c r="C417" s="30"/>
+      <c r="D417" s="30"/>
+    </row>
+    <row r="418">
+      <c r="B418" s="30"/>
+      <c r="C418" s="30"/>
+      <c r="D418" s="30"/>
+    </row>
+    <row r="419">
+      <c r="B419" s="30"/>
+      <c r="C419" s="30"/>
+      <c r="D419" s="30"/>
+    </row>
+    <row r="420">
+      <c r="B420" s="30"/>
+      <c r="C420" s="30"/>
+      <c r="D420" s="30"/>
+    </row>
+    <row r="421">
+      <c r="B421" s="30"/>
+      <c r="C421" s="30"/>
+      <c r="D421" s="30"/>
+    </row>
+    <row r="422">
+      <c r="B422" s="30"/>
+      <c r="C422" s="30"/>
+      <c r="D422" s="30"/>
+    </row>
+    <row r="423">
+      <c r="B423" s="30"/>
+      <c r="C423" s="30"/>
+      <c r="D423" s="30"/>
+    </row>
+    <row r="424">
+      <c r="B424" s="30"/>
+      <c r="C424" s="30"/>
+      <c r="D424" s="30"/>
+    </row>
+    <row r="425">
+      <c r="B425" s="30"/>
+      <c r="C425" s="30"/>
+      <c r="D425" s="30"/>
+    </row>
+    <row r="426">
+      <c r="B426" s="30"/>
+      <c r="C426" s="30"/>
+      <c r="D426" s="30"/>
+    </row>
+    <row r="427">
+      <c r="B427" s="30"/>
+      <c r="C427" s="30"/>
+      <c r="D427" s="30"/>
+    </row>
+    <row r="428">
+      <c r="B428" s="30"/>
+      <c r="C428" s="30"/>
+      <c r="D428" s="30"/>
+    </row>
+    <row r="429">
+      <c r="B429" s="30"/>
+      <c r="C429" s="30"/>
+      <c r="D429" s="30"/>
+    </row>
+    <row r="430">
+      <c r="B430" s="30"/>
+      <c r="C430" s="30"/>
+      <c r="D430" s="30"/>
+    </row>
+    <row r="431">
+      <c r="B431" s="30"/>
+      <c r="C431" s="30"/>
+      <c r="D431" s="30"/>
+    </row>
+    <row r="432">
+      <c r="B432" s="30"/>
+      <c r="C432" s="30"/>
+      <c r="D432" s="30"/>
+    </row>
+    <row r="433">
+      <c r="B433" s="30"/>
+      <c r="C433" s="30"/>
+      <c r="D433" s="30"/>
+    </row>
+    <row r="434">
+      <c r="B434" s="30"/>
+      <c r="C434" s="30"/>
+      <c r="D434" s="30"/>
+    </row>
+    <row r="435">
+      <c r="B435" s="30"/>
+      <c r="C435" s="30"/>
+      <c r="D435" s="30"/>
+    </row>
+    <row r="436">
+      <c r="B436" s="30"/>
+      <c r="C436" s="30"/>
+      <c r="D436" s="30"/>
+    </row>
+    <row r="437">
+      <c r="B437" s="30"/>
+      <c r="C437" s="30"/>
+      <c r="D437" s="30"/>
+    </row>
+    <row r="438">
+      <c r="B438" s="30"/>
+      <c r="C438" s="30"/>
+      <c r="D438" s="30"/>
+    </row>
+    <row r="439">
+      <c r="B439" s="30"/>
+      <c r="C439" s="30"/>
+      <c r="D439" s="30"/>
+    </row>
+    <row r="440">
+      <c r="B440" s="30"/>
+      <c r="C440" s="30"/>
+      <c r="D440" s="30"/>
+    </row>
+    <row r="441">
+      <c r="B441" s="30"/>
+      <c r="C441" s="30"/>
+      <c r="D441" s="30"/>
+    </row>
+    <row r="442">
+      <c r="B442" s="30"/>
+      <c r="C442" s="30"/>
+      <c r="D442" s="30"/>
+    </row>
+    <row r="443">
+      <c r="B443" s="30"/>
+      <c r="C443" s="30"/>
+      <c r="D443" s="30"/>
+    </row>
+    <row r="444">
+      <c r="B444" s="30"/>
+      <c r="C444" s="30"/>
+      <c r="D444" s="30"/>
+    </row>
+    <row r="445">
+      <c r="B445" s="30"/>
+      <c r="C445" s="30"/>
+      <c r="D445" s="30"/>
+    </row>
+    <row r="446">
+      <c r="B446" s="30"/>
+      <c r="C446" s="30"/>
+      <c r="D446" s="30"/>
+    </row>
+    <row r="447">
+      <c r="B447" s="30"/>
+      <c r="C447" s="30"/>
+      <c r="D447" s="30"/>
+    </row>
+    <row r="448">
+      <c r="B448" s="30"/>
+      <c r="C448" s="30"/>
+      <c r="D448" s="30"/>
+    </row>
+    <row r="449">
+      <c r="B449" s="30"/>
+      <c r="C449" s="30"/>
+      <c r="D449" s="30"/>
+    </row>
+    <row r="450">
+      <c r="B450" s="30"/>
+      <c r="C450" s="30"/>
+      <c r="D450" s="30"/>
+    </row>
+    <row r="451">
+      <c r="B451" s="30"/>
+      <c r="C451" s="30"/>
+      <c r="D451" s="30"/>
+    </row>
+    <row r="452">
+      <c r="B452" s="30"/>
+      <c r="C452" s="30"/>
+      <c r="D452" s="30"/>
+    </row>
+    <row r="453">
+      <c r="B453" s="30"/>
+      <c r="C453" s="30"/>
+      <c r="D453" s="30"/>
+    </row>
+    <row r="454">
+      <c r="B454" s="30"/>
+      <c r="C454" s="30"/>
+      <c r="D454" s="30"/>
+    </row>
+    <row r="455">
+      <c r="B455" s="30"/>
+      <c r="C455" s="30"/>
+      <c r="D455" s="30"/>
+    </row>
+    <row r="456">
+      <c r="B456" s="30"/>
+      <c r="C456" s="30"/>
+      <c r="D456" s="30"/>
+    </row>
+    <row r="457">
+      <c r="B457" s="30"/>
+      <c r="C457" s="30"/>
+      <c r="D457" s="30"/>
+    </row>
+    <row r="458">
+      <c r="B458" s="30"/>
+      <c r="C458" s="30"/>
+      <c r="D458" s="30"/>
+    </row>
+    <row r="459">
+      <c r="B459" s="30"/>
+      <c r="C459" s="30"/>
+      <c r="D459" s="30"/>
+    </row>
+    <row r="460">
+      <c r="B460" s="30"/>
+      <c r="C460" s="30"/>
+      <c r="D460" s="30"/>
+    </row>
+    <row r="461">
+      <c r="B461" s="30"/>
+      <c r="C461" s="30"/>
+      <c r="D461" s="30"/>
+    </row>
+    <row r="462">
+      <c r="B462" s="30"/>
+      <c r="C462" s="30"/>
+      <c r="D462" s="30"/>
+    </row>
+    <row r="463">
+      <c r="B463" s="30"/>
+      <c r="C463" s="30"/>
+      <c r="D463" s="30"/>
+    </row>
+    <row r="464">
+      <c r="B464" s="30"/>
+      <c r="C464" s="30"/>
+      <c r="D464" s="30"/>
+    </row>
+    <row r="465">
+      <c r="B465" s="30"/>
+      <c r="C465" s="30"/>
+      <c r="D465" s="30"/>
+    </row>
+    <row r="466">
+      <c r="B466" s="30"/>
+      <c r="C466" s="30"/>
+      <c r="D466" s="30"/>
+    </row>
+    <row r="467">
+      <c r="B467" s="30"/>
+      <c r="C467" s="30"/>
+      <c r="D467" s="30"/>
+    </row>
+    <row r="468">
+      <c r="B468" s="30"/>
+      <c r="C468" s="30"/>
+      <c r="D468" s="30"/>
+    </row>
+    <row r="469">
+      <c r="B469" s="30"/>
+      <c r="C469" s="30"/>
+      <c r="D469" s="30"/>
+    </row>
+    <row r="470">
+      <c r="B470" s="30"/>
+      <c r="C470" s="30"/>
+      <c r="D470" s="30"/>
+    </row>
+    <row r="471">
+      <c r="B471" s="30"/>
+      <c r="C471" s="30"/>
+      <c r="D471" s="30"/>
+    </row>
+    <row r="472">
+      <c r="B472" s="30"/>
+      <c r="C472" s="30"/>
+      <c r="D472" s="30"/>
+    </row>
+    <row r="473">
+      <c r="B473" s="30"/>
+      <c r="C473" s="30"/>
+      <c r="D473" s="30"/>
+    </row>
+    <row r="474">
+      <c r="B474" s="30"/>
+      <c r="C474" s="30"/>
+      <c r="D474" s="30"/>
+    </row>
+    <row r="475">
+      <c r="B475" s="30"/>
+      <c r="C475" s="30"/>
+      <c r="D475" s="30"/>
+    </row>
+    <row r="476">
+      <c r="B476" s="30"/>
+      <c r="C476" s="30"/>
+      <c r="D476" s="30"/>
+    </row>
+    <row r="477">
+      <c r="B477" s="30"/>
+      <c r="C477" s="30"/>
+      <c r="D477" s="30"/>
+    </row>
+    <row r="478">
+      <c r="B478" s="30"/>
+      <c r="C478" s="30"/>
+      <c r="D478" s="30"/>
+    </row>
+    <row r="479">
+      <c r="B479" s="30"/>
+      <c r="C479" s="30"/>
+      <c r="D479" s="30"/>
+    </row>
+    <row r="480">
+      <c r="B480" s="30"/>
+      <c r="C480" s="30"/>
+      <c r="D480" s="30"/>
+    </row>
+    <row r="481">
+      <c r="B481" s="30"/>
+      <c r="C481" s="30"/>
+      <c r="D481" s="30"/>
+    </row>
+    <row r="482">
+      <c r="B482" s="30"/>
+      <c r="C482" s="30"/>
+      <c r="D482" s="30"/>
+    </row>
+    <row r="483">
+      <c r="B483" s="30"/>
+      <c r="C483" s="30"/>
+      <c r="D483" s="30"/>
+    </row>
+    <row r="484">
+      <c r="B484" s="30"/>
+      <c r="C484" s="30"/>
+      <c r="D484" s="30"/>
+    </row>
+    <row r="485">
+      <c r="B485" s="30"/>
+      <c r="C485" s="30"/>
+      <c r="D485" s="30"/>
+    </row>
+    <row r="486">
+      <c r="B486" s="30"/>
+      <c r="C486" s="30"/>
+      <c r="D486" s="30"/>
+    </row>
+    <row r="487">
+      <c r="B487" s="30"/>
+      <c r="C487" s="30"/>
+      <c r="D487" s="30"/>
+    </row>
+    <row r="488">
+      <c r="B488" s="30"/>
+      <c r="C488" s="30"/>
+      <c r="D488" s="30"/>
+    </row>
+    <row r="489">
+      <c r="B489" s="30"/>
+      <c r="C489" s="30"/>
+      <c r="D489" s="30"/>
+    </row>
+    <row r="490">
+      <c r="B490" s="30"/>
+      <c r="C490" s="30"/>
+      <c r="D490" s="30"/>
+    </row>
+    <row r="491">
+      <c r="B491" s="30"/>
+      <c r="C491" s="30"/>
+      <c r="D491" s="30"/>
+    </row>
+    <row r="492">
+      <c r="B492" s="30"/>
+      <c r="C492" s="30"/>
+      <c r="D492" s="30"/>
+    </row>
+    <row r="493">
+      <c r="B493" s="30"/>
+      <c r="C493" s="30"/>
+      <c r="D493" s="30"/>
+    </row>
+    <row r="494">
+      <c r="B494" s="30"/>
+      <c r="C494" s="30"/>
+      <c r="D494" s="30"/>
+    </row>
+    <row r="495">
+      <c r="B495" s="30"/>
+      <c r="C495" s="30"/>
+      <c r="D495" s="30"/>
+    </row>
+    <row r="496">
+      <c r="B496" s="30"/>
+      <c r="C496" s="30"/>
+      <c r="D496" s="30"/>
+    </row>
+    <row r="497">
+      <c r="B497" s="30"/>
+      <c r="C497" s="30"/>
+      <c r="D497" s="30"/>
+    </row>
+    <row r="498">
+      <c r="B498" s="30"/>
+      <c r="C498" s="30"/>
+      <c r="D498" s="30"/>
+    </row>
+    <row r="499">
+      <c r="B499" s="30"/>
+      <c r="C499" s="30"/>
+      <c r="D499" s="30"/>
+    </row>
+    <row r="500">
+      <c r="B500" s="30"/>
+      <c r="C500" s="30"/>
+      <c r="D500" s="30"/>
+    </row>
+    <row r="501">
+      <c r="B501" s="30"/>
+      <c r="C501" s="30"/>
+      <c r="D501" s="30"/>
+    </row>
+    <row r="502">
+      <c r="B502" s="30"/>
+      <c r="C502" s="30"/>
+      <c r="D502" s="30"/>
+    </row>
+    <row r="503">
+      <c r="B503" s="30"/>
+      <c r="C503" s="30"/>
+      <c r="D503" s="30"/>
+    </row>
+    <row r="504">
+      <c r="B504" s="30"/>
+      <c r="C504" s="30"/>
+      <c r="D504" s="30"/>
+    </row>
+    <row r="505">
+      <c r="B505" s="30"/>
+      <c r="C505" s="30"/>
+      <c r="D505" s="30"/>
+    </row>
+    <row r="506">
+      <c r="B506" s="30"/>
+      <c r="C506" s="30"/>
+      <c r="D506" s="30"/>
+    </row>
+    <row r="507">
+      <c r="B507" s="30"/>
+      <c r="C507" s="30"/>
+      <c r="D507" s="30"/>
+    </row>
+    <row r="508">
+      <c r="B508" s="30"/>
+      <c r="C508" s="30"/>
+      <c r="D508" s="30"/>
+    </row>
+    <row r="509">
+      <c r="B509" s="30"/>
+      <c r="C509" s="30"/>
+      <c r="D509" s="30"/>
+    </row>
+    <row r="510">
+      <c r="B510" s="30"/>
+      <c r="C510" s="30"/>
+      <c r="D510" s="30"/>
+    </row>
+    <row r="511">
+      <c r="B511" s="30"/>
+      <c r="C511" s="30"/>
+      <c r="D511" s="30"/>
+    </row>
+    <row r="512">
+      <c r="B512" s="30"/>
+      <c r="C512" s="30"/>
+      <c r="D512" s="30"/>
+    </row>
+    <row r="513">
+      <c r="B513" s="30"/>
+      <c r="C513" s="30"/>
+      <c r="D513" s="30"/>
+    </row>
+    <row r="514">
+      <c r="B514" s="30"/>
+      <c r="C514" s="30"/>
+      <c r="D514" s="30"/>
+    </row>
+    <row r="515">
+      <c r="B515" s="30"/>
+      <c r="C515" s="30"/>
+      <c r="D515" s="30"/>
+    </row>
+    <row r="516">
+      <c r="B516" s="30"/>
+      <c r="C516" s="30"/>
+      <c r="D516" s="30"/>
+    </row>
+    <row r="517">
+      <c r="B517" s="30"/>
+      <c r="C517" s="30"/>
+      <c r="D517" s="30"/>
+    </row>
+    <row r="518">
+      <c r="B518" s="30"/>
+      <c r="C518" s="30"/>
+      <c r="D518" s="30"/>
+    </row>
+    <row r="519">
+      <c r="B519" s="30"/>
+      <c r="C519" s="30"/>
+      <c r="D519" s="30"/>
+    </row>
+    <row r="520">
+      <c r="B520" s="30"/>
+      <c r="C520" s="30"/>
+      <c r="D520" s="30"/>
+    </row>
+    <row r="521">
+      <c r="B521" s="30"/>
+      <c r="C521" s="30"/>
+      <c r="D521" s="30"/>
+    </row>
+    <row r="522">
+      <c r="B522" s="30"/>
+      <c r="C522" s="30"/>
+      <c r="D522" s="30"/>
+    </row>
+    <row r="523">
+      <c r="B523" s="30"/>
+      <c r="C523" s="30"/>
+      <c r="D523" s="30"/>
+    </row>
+    <row r="524">
+      <c r="B524" s="30"/>
+      <c r="C524" s="30"/>
+      <c r="D524" s="30"/>
+    </row>
+    <row r="525">
+      <c r="B525" s="30"/>
+      <c r="C525" s="30"/>
+      <c r="D525" s="30"/>
+    </row>
+    <row r="526">
+      <c r="B526" s="30"/>
+      <c r="C526" s="30"/>
+      <c r="D526" s="30"/>
+    </row>
+    <row r="527">
+      <c r="B527" s="30"/>
+      <c r="C527" s="30"/>
+      <c r="D527" s="30"/>
+    </row>
+    <row r="528">
+      <c r="B528" s="30"/>
+      <c r="C528" s="30"/>
+      <c r="D528" s="30"/>
+    </row>
+    <row r="529">
+      <c r="B529" s="30"/>
+      <c r="C529" s="30"/>
+      <c r="D529" s="30"/>
+    </row>
+    <row r="530">
+      <c r="B530" s="30"/>
+      <c r="C530" s="30"/>
+      <c r="D530" s="30"/>
+    </row>
+    <row r="531">
+      <c r="B531" s="30"/>
+      <c r="C531" s="30"/>
+      <c r="D531" s="30"/>
+    </row>
+    <row r="532">
+      <c r="B532" s="30"/>
+      <c r="C532" s="30"/>
+      <c r="D532" s="30"/>
+    </row>
+    <row r="533">
+      <c r="B533" s="30"/>
+      <c r="C533" s="30"/>
+      <c r="D533" s="30"/>
+    </row>
+    <row r="534">
+      <c r="B534" s="30"/>
+      <c r="C534" s="30"/>
+      <c r="D534" s="30"/>
+    </row>
+    <row r="535">
+      <c r="B535" s="30"/>
+      <c r="C535" s="30"/>
+      <c r="D535" s="30"/>
+    </row>
+    <row r="536">
+      <c r="B536" s="30"/>
+      <c r="C536" s="30"/>
+      <c r="D536" s="30"/>
+    </row>
+    <row r="537">
+      <c r="B537" s="30"/>
+      <c r="C537" s="30"/>
+      <c r="D537" s="30"/>
+    </row>
+    <row r="538">
+      <c r="B538" s="30"/>
+      <c r="C538" s="30"/>
+      <c r="D538" s="30"/>
+    </row>
+    <row r="539">
+      <c r="B539" s="30"/>
+      <c r="C539" s="30"/>
+      <c r="D539" s="30"/>
+    </row>
+    <row r="540">
+      <c r="B540" s="30"/>
+      <c r="C540" s="30"/>
+      <c r="D540" s="30"/>
+    </row>
+    <row r="541">
+      <c r="B541" s="30"/>
+      <c r="C541" s="30"/>
+      <c r="D541" s="30"/>
+    </row>
+    <row r="542">
+      <c r="B542" s="30"/>
+      <c r="C542" s="30"/>
+      <c r="D542" s="30"/>
+    </row>
+    <row r="543">
+      <c r="B543" s="30"/>
+      <c r="C543" s="30"/>
+      <c r="D543" s="30"/>
+    </row>
+    <row r="544">
+      <c r="B544" s="30"/>
+      <c r="C544" s="30"/>
+      <c r="D544" s="30"/>
+    </row>
+    <row r="545">
+      <c r="B545" s="30"/>
+      <c r="C545" s="30"/>
+      <c r="D545" s="30"/>
+    </row>
+    <row r="546">
+      <c r="B546" s="30"/>
+      <c r="C546" s="30"/>
+      <c r="D546" s="30"/>
+    </row>
+    <row r="547">
+      <c r="B547" s="30"/>
+      <c r="C547" s="30"/>
+      <c r="D547" s="30"/>
+    </row>
+    <row r="548">
+      <c r="B548" s="30"/>
+      <c r="C548" s="30"/>
+      <c r="D548" s="30"/>
+    </row>
+    <row r="549">
+      <c r="B549" s="30"/>
+      <c r="C549" s="30"/>
+      <c r="D549" s="30"/>
+    </row>
+    <row r="550">
+      <c r="B550" s="30"/>
+      <c r="C550" s="30"/>
+      <c r="D550" s="30"/>
+    </row>
+    <row r="551">
+      <c r="B551" s="30"/>
+      <c r="C551" s="30"/>
+      <c r="D551" s="30"/>
+    </row>
+    <row r="552">
+      <c r="B552" s="30"/>
+      <c r="C552" s="30"/>
+      <c r="D552" s="30"/>
+    </row>
+    <row r="553">
+      <c r="B553" s="30"/>
+      <c r="C553" s="30"/>
+      <c r="D553" s="30"/>
+    </row>
+    <row r="554">
+      <c r="B554" s="30"/>
+      <c r="C554" s="30"/>
+      <c r="D554" s="30"/>
+    </row>
+    <row r="555">
+      <c r="B555" s="30"/>
+      <c r="C555" s="30"/>
+      <c r="D555" s="30"/>
+    </row>
+    <row r="556">
+      <c r="B556" s="30"/>
+      <c r="C556" s="30"/>
+      <c r="D556" s="30"/>
+    </row>
+    <row r="557">
+      <c r="B557" s="30"/>
+      <c r="C557" s="30"/>
+      <c r="D557" s="30"/>
+    </row>
+    <row r="558">
+      <c r="B558" s="30"/>
+      <c r="C558" s="30"/>
+      <c r="D558" s="30"/>
+    </row>
+    <row r="559">
+      <c r="B559" s="30"/>
+      <c r="C559" s="30"/>
+      <c r="D559" s="30"/>
+    </row>
+    <row r="560">
+      <c r="B560" s="30"/>
+      <c r="C560" s="30"/>
+      <c r="D560" s="30"/>
+    </row>
+    <row r="561">
+      <c r="B561" s="30"/>
+      <c r="C561" s="30"/>
+      <c r="D561" s="30"/>
+    </row>
+    <row r="562">
+      <c r="B562" s="30"/>
+      <c r="C562" s="30"/>
+      <c r="D562" s="30"/>
+    </row>
+    <row r="563">
+      <c r="B563" s="30"/>
+      <c r="C563" s="30"/>
+      <c r="D563" s="30"/>
+    </row>
+    <row r="564">
+      <c r="B564" s="30"/>
+      <c r="C564" s="30"/>
+      <c r="D564" s="30"/>
+    </row>
+    <row r="565">
+      <c r="B565" s="30"/>
+      <c r="C565" s="30"/>
+      <c r="D565" s="30"/>
+    </row>
+    <row r="566">
+      <c r="B566" s="30"/>
+      <c r="C566" s="30"/>
+      <c r="D566" s="30"/>
+    </row>
+    <row r="567">
+      <c r="B567" s="30"/>
+      <c r="C567" s="30"/>
+      <c r="D567" s="30"/>
+    </row>
+    <row r="568">
+      <c r="B568" s="30"/>
+      <c r="C568" s="30"/>
+      <c r="D568" s="30"/>
+    </row>
+    <row r="569">
+      <c r="B569" s="30"/>
+      <c r="C569" s="30"/>
+      <c r="D569" s="30"/>
+    </row>
+    <row r="570">
+      <c r="B570" s="30"/>
+      <c r="C570" s="30"/>
+      <c r="D570" s="30"/>
+    </row>
+    <row r="571">
+      <c r="B571" s="30"/>
+      <c r="C571" s="30"/>
+      <c r="D571" s="30"/>
+    </row>
+    <row r="572">
+      <c r="B572" s="30"/>
+      <c r="C572" s="30"/>
+      <c r="D572" s="30"/>
+    </row>
+    <row r="573">
+      <c r="B573" s="30"/>
+      <c r="C573" s="30"/>
+      <c r="D573" s="30"/>
+    </row>
+    <row r="574">
+      <c r="B574" s="30"/>
+      <c r="C574" s="30"/>
+      <c r="D574" s="30"/>
+    </row>
+    <row r="575">
+      <c r="B575" s="30"/>
+      <c r="C575" s="30"/>
+      <c r="D575" s="30"/>
+    </row>
+    <row r="576">
+      <c r="B576" s="30"/>
+      <c r="C576" s="30"/>
+      <c r="D576" s="30"/>
+    </row>
+    <row r="577">
+      <c r="B577" s="30"/>
+      <c r="C577" s="30"/>
+      <c r="D577" s="30"/>
+    </row>
+    <row r="578">
+      <c r="B578" s="30"/>
+      <c r="C578" s="30"/>
+      <c r="D578" s="30"/>
+    </row>
+    <row r="579">
+      <c r="B579" s="30"/>
+      <c r="C579" s="30"/>
+      <c r="D579" s="30"/>
+    </row>
+    <row r="580">
+      <c r="B580" s="30"/>
+      <c r="C580" s="30"/>
+      <c r="D580" s="30"/>
+    </row>
+    <row r="581">
+      <c r="B581" s="30"/>
+      <c r="C581" s="30"/>
+      <c r="D581" s="30"/>
+    </row>
+    <row r="582">
+      <c r="B582" s="30"/>
+      <c r="C582" s="30"/>
+      <c r="D582" s="30"/>
+    </row>
+    <row r="583">
+      <c r="B583" s="30"/>
+      <c r="C583" s="30"/>
+      <c r="D583" s="30"/>
+    </row>
+    <row r="584">
+      <c r="B584" s="30"/>
+      <c r="C584" s="30"/>
+      <c r="D584" s="30"/>
+    </row>
+    <row r="585">
+      <c r="B585" s="30"/>
+      <c r="C585" s="30"/>
+      <c r="D585" s="30"/>
+    </row>
+    <row r="586">
+      <c r="B586" s="30"/>
+      <c r="C586" s="30"/>
+      <c r="D586" s="30"/>
+    </row>
+    <row r="587">
+      <c r="B587" s="30"/>
+      <c r="C587" s="30"/>
+      <c r="D587" s="30"/>
+    </row>
+    <row r="588">
+      <c r="B588" s="30"/>
+      <c r="C588" s="30"/>
+      <c r="D588" s="30"/>
+    </row>
+    <row r="589">
+      <c r="B589" s="30"/>
+      <c r="C589" s="30"/>
+      <c r="D589" s="30"/>
+    </row>
+    <row r="590">
+      <c r="B590" s="30"/>
+      <c r="C590" s="30"/>
+      <c r="D590" s="30"/>
+    </row>
+    <row r="591">
+      <c r="B591" s="30"/>
+      <c r="C591" s="30"/>
+      <c r="D591" s="30"/>
+    </row>
+    <row r="592">
+      <c r="B592" s="30"/>
+      <c r="C592" s="30"/>
+      <c r="D592" s="30"/>
+    </row>
+    <row r="593">
+      <c r="B593" s="30"/>
+      <c r="C593" s="30"/>
+      <c r="D593" s="30"/>
+    </row>
+    <row r="594">
+      <c r="B594" s="30"/>
+      <c r="C594" s="30"/>
+      <c r="D594" s="30"/>
+    </row>
+    <row r="595">
+      <c r="B595" s="30"/>
+      <c r="C595" s="30"/>
+      <c r="D595" s="30"/>
+    </row>
+    <row r="596">
+      <c r="B596" s="30"/>
+      <c r="C596" s="30"/>
+      <c r="D596" s="30"/>
+    </row>
+    <row r="597">
+      <c r="B597" s="30"/>
+      <c r="C597" s="30"/>
+      <c r="D597" s="30"/>
+    </row>
+    <row r="598">
+      <c r="B598" s="30"/>
+      <c r="C598" s="30"/>
+      <c r="D598" s="30"/>
+    </row>
+    <row r="599">
+      <c r="B599" s="30"/>
+      <c r="C599" s="30"/>
+      <c r="D599" s="30"/>
+    </row>
+    <row r="600">
+      <c r="B600" s="30"/>
+      <c r="C600" s="30"/>
+      <c r="D600" s="30"/>
+    </row>
+    <row r="601">
+      <c r="B601" s="30"/>
+      <c r="C601" s="30"/>
+      <c r="D601" s="30"/>
+    </row>
+    <row r="602">
+      <c r="B602" s="30"/>
+      <c r="C602" s="30"/>
+      <c r="D602" s="30"/>
+    </row>
+    <row r="603">
+      <c r="B603" s="30"/>
+      <c r="C603" s="30"/>
+      <c r="D603" s="30"/>
+    </row>
+    <row r="604">
+      <c r="B604" s="30"/>
+      <c r="C604" s="30"/>
+      <c r="D604" s="30"/>
+    </row>
+    <row r="605">
+      <c r="B605" s="30"/>
+      <c r="C605" s="30"/>
+      <c r="D605" s="30"/>
+    </row>
+    <row r="606">
+      <c r="B606" s="30"/>
+      <c r="C606" s="30"/>
+      <c r="D606" s="30"/>
+    </row>
+    <row r="607">
+      <c r="B607" s="30"/>
+      <c r="C607" s="30"/>
+      <c r="D607" s="30"/>
+    </row>
+    <row r="608">
+      <c r="B608" s="30"/>
+      <c r="C608" s="30"/>
+      <c r="D608" s="30"/>
+    </row>
+    <row r="609">
+      <c r="B609" s="30"/>
+      <c r="C609" s="30"/>
+      <c r="D609" s="30"/>
+    </row>
+    <row r="610">
+      <c r="B610" s="30"/>
+      <c r="C610" s="30"/>
+      <c r="D610" s="30"/>
+    </row>
+    <row r="611">
+      <c r="B611" s="30"/>
+      <c r="C611" s="30"/>
+      <c r="D611" s="30"/>
+    </row>
+    <row r="612">
+      <c r="B612" s="30"/>
+      <c r="C612" s="30"/>
+      <c r="D612" s="30"/>
+    </row>
+    <row r="613">
+      <c r="B613" s="30"/>
+      <c r="C613" s="30"/>
+      <c r="D613" s="30"/>
+    </row>
+    <row r="614">
+      <c r="B614" s="30"/>
+      <c r="C614" s="30"/>
+      <c r="D614" s="30"/>
+    </row>
+    <row r="615">
+      <c r="B615" s="30"/>
+      <c r="C615" s="30"/>
+      <c r="D615" s="30"/>
+    </row>
+    <row r="616">
+      <c r="B616" s="30"/>
+      <c r="C616" s="30"/>
+      <c r="D616" s="30"/>
+    </row>
+    <row r="617">
+      <c r="B617" s="30"/>
+      <c r="C617" s="30"/>
+      <c r="D617" s="30"/>
+    </row>
+    <row r="618">
+      <c r="B618" s="30"/>
+      <c r="C618" s="30"/>
+      <c r="D618" s="30"/>
+    </row>
+    <row r="619">
+      <c r="B619" s="30"/>
+      <c r="C619" s="30"/>
+      <c r="D619" s="30"/>
+    </row>
+    <row r="620">
+      <c r="B620" s="30"/>
+      <c r="C620" s="30"/>
+      <c r="D620" s="30"/>
+    </row>
+    <row r="621">
+      <c r="B621" s="30"/>
+      <c r="C621" s="30"/>
+      <c r="D621" s="30"/>
+    </row>
+    <row r="622">
+      <c r="B622" s="30"/>
+      <c r="C622" s="30"/>
+      <c r="D622" s="30"/>
+    </row>
+    <row r="623">
+      <c r="B623" s="30"/>
+      <c r="C623" s="30"/>
+      <c r="D623" s="30"/>
+    </row>
+    <row r="624">
+      <c r="B624" s="30"/>
+      <c r="C624" s="30"/>
+      <c r="D624" s="30"/>
+    </row>
+    <row r="625">
+      <c r="B625" s="30"/>
+      <c r="C625" s="30"/>
+      <c r="D625" s="30"/>
+    </row>
+    <row r="626">
+      <c r="B626" s="30"/>
+      <c r="C626" s="30"/>
+      <c r="D626" s="30"/>
+    </row>
+    <row r="627">
+      <c r="B627" s="30"/>
+      <c r="C627" s="30"/>
+      <c r="D627" s="30"/>
+    </row>
+    <row r="628">
+      <c r="B628" s="30"/>
+      <c r="C628" s="30"/>
+      <c r="D628" s="30"/>
+    </row>
+    <row r="629">
+      <c r="B629" s="30"/>
+      <c r="C629" s="30"/>
+      <c r="D629" s="30"/>
+    </row>
+    <row r="630">
+      <c r="B630" s="30"/>
+      <c r="C630" s="30"/>
+      <c r="D630" s="30"/>
+    </row>
+    <row r="631">
+      <c r="B631" s="30"/>
+      <c r="C631" s="30"/>
+      <c r="D631" s="30"/>
+    </row>
+    <row r="632">
+      <c r="B632" s="30"/>
+      <c r="C632" s="30"/>
+      <c r="D632" s="30"/>
+    </row>
+    <row r="633">
+      <c r="B633" s="30"/>
+      <c r="C633" s="30"/>
+      <c r="D633" s="30"/>
+    </row>
+    <row r="634">
+      <c r="B634" s="30"/>
+      <c r="C634" s="30"/>
+      <c r="D634" s="30"/>
+    </row>
+    <row r="635">
+      <c r="B635" s="30"/>
+      <c r="C635" s="30"/>
+      <c r="D635" s="30"/>
+    </row>
+    <row r="636">
+      <c r="B636" s="30"/>
+      <c r="C636" s="30"/>
+      <c r="D636" s="30"/>
+    </row>
+    <row r="637">
+      <c r="B637" s="30"/>
+      <c r="C637" s="30"/>
+      <c r="D637" s="30"/>
+    </row>
+    <row r="638">
+      <c r="B638" s="30"/>
+      <c r="C638" s="30"/>
+      <c r="D638" s="30"/>
+    </row>
+    <row r="639">
+      <c r="B639" s="30"/>
+      <c r="C639" s="30"/>
+      <c r="D639" s="30"/>
+    </row>
+    <row r="640">
+      <c r="B640" s="30"/>
+      <c r="C640" s="30"/>
+      <c r="D640" s="30"/>
+    </row>
+    <row r="641">
+      <c r="B641" s="30"/>
+      <c r="C641" s="30"/>
+      <c r="D641" s="30"/>
+    </row>
+    <row r="642">
+      <c r="B642" s="30"/>
+      <c r="C642" s="30"/>
+      <c r="D642" s="30"/>
+    </row>
+    <row r="643">
+      <c r="B643" s="30"/>
+      <c r="C643" s="30"/>
+      <c r="D643" s="30"/>
+    </row>
+    <row r="644">
+      <c r="B644" s="30"/>
+      <c r="C644" s="30"/>
+      <c r="D644" s="30"/>
+    </row>
+    <row r="645">
+      <c r="B645" s="30"/>
+      <c r="C645" s="30"/>
+      <c r="D645" s="30"/>
+    </row>
+    <row r="646">
+      <c r="B646" s="30"/>
+      <c r="C646" s="30"/>
+      <c r="D646" s="30"/>
+    </row>
+    <row r="647">
+      <c r="B647" s="30"/>
+      <c r="C647" s="30"/>
+      <c r="D647" s="30"/>
+    </row>
+    <row r="648">
+      <c r="B648" s="30"/>
+      <c r="C648" s="30"/>
+      <c r="D648" s="30"/>
+    </row>
+    <row r="649">
+      <c r="B649" s="30"/>
+      <c r="C649" s="30"/>
+      <c r="D649" s="30"/>
+    </row>
+    <row r="650">
+      <c r="B650" s="30"/>
+      <c r="C650" s="30"/>
+      <c r="D650" s="30"/>
+    </row>
+    <row r="651">
+      <c r="B651" s="30"/>
+      <c r="C651" s="30"/>
+      <c r="D651" s="30"/>
+    </row>
+    <row r="652">
+      <c r="B652" s="30"/>
+      <c r="C652" s="30"/>
+      <c r="D652" s="30"/>
+    </row>
+    <row r="653">
+      <c r="B653" s="30"/>
+      <c r="C653" s="30"/>
+      <c r="D653" s="30"/>
+    </row>
+    <row r="654">
+      <c r="B654" s="30"/>
+      <c r="C654" s="30"/>
+      <c r="D654" s="30"/>
+    </row>
+    <row r="655">
+      <c r="B655" s="30"/>
+      <c r="C655" s="30"/>
+      <c r="D655" s="30"/>
+    </row>
+    <row r="656">
+      <c r="B656" s="30"/>
+      <c r="C656" s="30"/>
+      <c r="D656" s="30"/>
+    </row>
+    <row r="657">
+      <c r="B657" s="30"/>
+      <c r="C657" s="30"/>
+      <c r="D657" s="30"/>
+    </row>
+    <row r="658">
+      <c r="B658" s="30"/>
+      <c r="C658" s="30"/>
+      <c r="D658" s="30"/>
+    </row>
+    <row r="659">
+      <c r="B659" s="30"/>
+      <c r="C659" s="30"/>
+      <c r="D659" s="30"/>
+    </row>
+    <row r="660">
+      <c r="B660" s="30"/>
+      <c r="C660" s="30"/>
+      <c r="D660" s="30"/>
+    </row>
+    <row r="661">
+      <c r="B661" s="30"/>
+      <c r="C661" s="30"/>
+      <c r="D661" s="30"/>
+    </row>
+    <row r="662">
+      <c r="B662" s="30"/>
+      <c r="C662" s="30"/>
+      <c r="D662" s="30"/>
+    </row>
+    <row r="663">
+      <c r="B663" s="30"/>
+      <c r="C663" s="30"/>
+      <c r="D663" s="30"/>
+    </row>
+    <row r="664">
+      <c r="B664" s="30"/>
+      <c r="C664" s="30"/>
+      <c r="D664" s="30"/>
+    </row>
+    <row r="665">
+      <c r="B665" s="30"/>
+      <c r="C665" s="30"/>
+      <c r="D665" s="30"/>
+    </row>
+    <row r="666">
+      <c r="B666" s="30"/>
+      <c r="C666" s="30"/>
+      <c r="D666" s="30"/>
+    </row>
+    <row r="667">
+      <c r="B667" s="30"/>
+      <c r="C667" s="30"/>
+      <c r="D667" s="30"/>
+    </row>
+    <row r="668">
+      <c r="B668" s="30"/>
+      <c r="C668" s="30"/>
+      <c r="D668" s="30"/>
+    </row>
+    <row r="669">
+      <c r="B669" s="30"/>
+      <c r="C669" s="30"/>
+      <c r="D669" s="30"/>
+    </row>
+    <row r="670">
+      <c r="B670" s="30"/>
+      <c r="C670" s="30"/>
+      <c r="D670" s="30"/>
+    </row>
+    <row r="671">
+      <c r="B671" s="30"/>
+      <c r="C671" s="30"/>
+      <c r="D671" s="30"/>
+    </row>
+    <row r="672">
+      <c r="B672" s="30"/>
+      <c r="C672" s="30"/>
+      <c r="D672" s="30"/>
+    </row>
+    <row r="673">
+      <c r="B673" s="30"/>
+      <c r="C673" s="30"/>
+      <c r="D673" s="30"/>
+    </row>
+    <row r="674">
+      <c r="B674" s="30"/>
+      <c r="C674" s="30"/>
+      <c r="D674" s="30"/>
+    </row>
+    <row r="675">
+      <c r="B675" s="30"/>
+      <c r="C675" s="30"/>
+      <c r="D675" s="30"/>
+    </row>
+    <row r="676">
+      <c r="B676" s="30"/>
+      <c r="C676" s="30"/>
+      <c r="D676" s="30"/>
+    </row>
+    <row r="677">
+      <c r="B677" s="30"/>
+      <c r="C677" s="30"/>
+      <c r="D677" s="30"/>
+    </row>
+    <row r="678">
+      <c r="B678" s="30"/>
+      <c r="C678" s="30"/>
+      <c r="D678" s="30"/>
+    </row>
+    <row r="679">
+      <c r="B679" s="30"/>
+      <c r="C679" s="30"/>
+      <c r="D679" s="30"/>
+    </row>
+    <row r="680">
+      <c r="B680" s="30"/>
+      <c r="C680" s="30"/>
+      <c r="D680" s="30"/>
+    </row>
+    <row r="681">
+      <c r="B681" s="30"/>
+      <c r="C681" s="30"/>
+      <c r="D681" s="30"/>
+    </row>
+    <row r="682">
+      <c r="B682" s="30"/>
+      <c r="C682" s="30"/>
+      <c r="D682" s="30"/>
+    </row>
+    <row r="683">
+      <c r="B683" s="30"/>
+      <c r="C683" s="30"/>
+      <c r="D683" s="30"/>
+    </row>
+    <row r="684">
+      <c r="B684" s="30"/>
+      <c r="C684" s="30"/>
+      <c r="D684" s="30"/>
+    </row>
+    <row r="685">
+      <c r="B685" s="30"/>
+      <c r="C685" s="30"/>
+      <c r="D685" s="30"/>
+    </row>
+    <row r="686">
+      <c r="B686" s="30"/>
+      <c r="C686" s="30"/>
+      <c r="D686" s="30"/>
+    </row>
+    <row r="687">
+      <c r="B687" s="30"/>
+      <c r="C687" s="30"/>
+      <c r="D687" s="30"/>
+    </row>
+    <row r="688">
+      <c r="B688" s="30"/>
+      <c r="C688" s="30"/>
+      <c r="D688" s="30"/>
+    </row>
+    <row r="689">
+      <c r="B689" s="30"/>
+      <c r="C689" s="30"/>
+      <c r="D689" s="30"/>
+    </row>
+    <row r="690">
+      <c r="B690" s="30"/>
+      <c r="C690" s="30"/>
+      <c r="D690" s="30"/>
+    </row>
+    <row r="691">
+      <c r="B691" s="30"/>
+      <c r="C691" s="30"/>
+      <c r="D691" s="30"/>
+    </row>
+    <row r="692">
+      <c r="B692" s="30"/>
+      <c r="C692" s="30"/>
+      <c r="D692" s="30"/>
+    </row>
+    <row r="693">
+      <c r="B693" s="30"/>
+      <c r="C693" s="30"/>
+      <c r="D693" s="30"/>
+    </row>
+    <row r="694">
+      <c r="B694" s="30"/>
+      <c r="C694" s="30"/>
+      <c r="D694" s="30"/>
+    </row>
+    <row r="695">
+      <c r="B695" s="30"/>
+      <c r="C695" s="30"/>
+      <c r="D695" s="30"/>
+    </row>
+    <row r="696">
+      <c r="B696" s="30"/>
+      <c r="C696" s="30"/>
+      <c r="D696" s="30"/>
+    </row>
+    <row r="697">
+      <c r="B697" s="30"/>
+      <c r="C697" s="30"/>
+      <c r="D697" s="30"/>
+    </row>
+    <row r="698">
+      <c r="B698" s="30"/>
+      <c r="C698" s="30"/>
+      <c r="D698" s="30"/>
+    </row>
+    <row r="699">
+      <c r="B699" s="30"/>
+      <c r="C699" s="30"/>
+      <c r="D699" s="30"/>
+    </row>
+    <row r="700">
+      <c r="B700" s="30"/>
+      <c r="C700" s="30"/>
+      <c r="D700" s="30"/>
+    </row>
+    <row r="701">
+      <c r="B701" s="30"/>
+      <c r="C701" s="30"/>
+      <c r="D701" s="30"/>
+    </row>
+    <row r="702">
+      <c r="B702" s="30"/>
+      <c r="C702" s="30"/>
+      <c r="D702" s="30"/>
+    </row>
+    <row r="703">
+      <c r="B703" s="30"/>
+      <c r="C703" s="30"/>
+      <c r="D703" s="30"/>
+    </row>
+    <row r="704">
+      <c r="B704" s="30"/>
+      <c r="C704" s="30"/>
+      <c r="D704" s="30"/>
+    </row>
+    <row r="705">
+      <c r="B705" s="30"/>
+      <c r="C705" s="30"/>
+      <c r="D705" s="30"/>
+    </row>
+    <row r="706">
+      <c r="B706" s="30"/>
+      <c r="C706" s="30"/>
+      <c r="D706" s="30"/>
+    </row>
+    <row r="707">
+      <c r="B707" s="30"/>
+      <c r="C707" s="30"/>
+      <c r="D707" s="30"/>
+    </row>
+    <row r="708">
+      <c r="B708" s="30"/>
+      <c r="C708" s="30"/>
+      <c r="D708" s="30"/>
+    </row>
+    <row r="709">
+      <c r="B709" s="30"/>
+      <c r="C709" s="30"/>
+      <c r="D709" s="30"/>
+    </row>
+    <row r="710">
+      <c r="B710" s="30"/>
+      <c r="C710" s="30"/>
+      <c r="D710" s="30"/>
+    </row>
+    <row r="711">
+      <c r="B711" s="30"/>
+      <c r="C711" s="30"/>
+      <c r="D711" s="30"/>
+    </row>
+    <row r="712">
+      <c r="B712" s="30"/>
+      <c r="C712" s="30"/>
+      <c r="D712" s="30"/>
+    </row>
+    <row r="713">
+      <c r="B713" s="30"/>
+      <c r="C713" s="30"/>
+      <c r="D713" s="30"/>
+    </row>
+    <row r="714">
+      <c r="B714" s="30"/>
+      <c r="C714" s="30"/>
+      <c r="D714" s="30"/>
+    </row>
+    <row r="715">
+      <c r="B715" s="30"/>
+      <c r="C715" s="30"/>
+      <c r="D715" s="30"/>
+    </row>
+    <row r="716">
+      <c r="B716" s="30"/>
+      <c r="C716" s="30"/>
+      <c r="D716" s="30"/>
+    </row>
+    <row r="717">
+      <c r="B717" s="30"/>
+      <c r="C717" s="30"/>
+      <c r="D717" s="30"/>
+    </row>
+    <row r="718">
+      <c r="B718" s="30"/>
+      <c r="C718" s="30"/>
+      <c r="D718" s="30"/>
+    </row>
+    <row r="719">
+      <c r="B719" s="30"/>
+      <c r="C719" s="30"/>
+      <c r="D719" s="30"/>
+    </row>
+    <row r="720">
+      <c r="B720" s="30"/>
+      <c r="C720" s="30"/>
+      <c r="D720" s="30"/>
+    </row>
+    <row r="721">
+      <c r="B721" s="30"/>
+      <c r="C721" s="30"/>
+      <c r="D721" s="30"/>
+    </row>
+    <row r="722">
+      <c r="B722" s="30"/>
+      <c r="C722" s="30"/>
+      <c r="D722" s="30"/>
+    </row>
+    <row r="723">
+      <c r="B723" s="30"/>
+      <c r="C723" s="30"/>
+      <c r="D723" s="30"/>
+    </row>
+    <row r="724">
+      <c r="B724" s="30"/>
+      <c r="C724" s="30"/>
+      <c r="D724" s="30"/>
+    </row>
+    <row r="725">
+      <c r="B725" s="30"/>
+      <c r="C725" s="30"/>
+      <c r="D725" s="30"/>
+    </row>
+    <row r="726">
+      <c r="B726" s="30"/>
+      <c r="C726" s="30"/>
+      <c r="D726" s="30"/>
+    </row>
+    <row r="727">
+      <c r="B727" s="30"/>
+      <c r="C727" s="30"/>
+      <c r="D727" s="30"/>
+    </row>
+    <row r="728">
+      <c r="B728" s="30"/>
+      <c r="C728" s="30"/>
+      <c r="D728" s="30"/>
+    </row>
+    <row r="729">
+      <c r="B729" s="30"/>
+      <c r="C729" s="30"/>
+      <c r="D729" s="30"/>
+    </row>
+    <row r="730">
+      <c r="B730" s="30"/>
+      <c r="C730" s="30"/>
+      <c r="D730" s="30"/>
+    </row>
+    <row r="731">
+      <c r="B731" s="30"/>
+      <c r="C731" s="30"/>
+      <c r="D731" s="30"/>
+    </row>
+    <row r="732">
+      <c r="B732" s="30"/>
+      <c r="C732" s="30"/>
+      <c r="D732" s="30"/>
+    </row>
+    <row r="733">
+      <c r="B733" s="30"/>
+      <c r="C733" s="30"/>
+      <c r="D733" s="30"/>
+    </row>
+    <row r="734">
+      <c r="B734" s="30"/>
+      <c r="C734" s="30"/>
+      <c r="D734" s="30"/>
+    </row>
+    <row r="735">
+      <c r="B735" s="30"/>
+      <c r="C735" s="30"/>
+      <c r="D735" s="30"/>
+    </row>
+    <row r="736">
+      <c r="B736" s="30"/>
+      <c r="C736" s="30"/>
+      <c r="D736" s="30"/>
+    </row>
+    <row r="737">
+      <c r="B737" s="30"/>
+      <c r="C737" s="30"/>
+      <c r="D737" s="30"/>
+    </row>
+    <row r="738">
+      <c r="B738" s="30"/>
+      <c r="C738" s="30"/>
+      <c r="D738" s="30"/>
+    </row>
+    <row r="739">
+      <c r="B739" s="30"/>
+      <c r="C739" s="30"/>
+      <c r="D739" s="30"/>
+    </row>
+    <row r="740">
+      <c r="B740" s="30"/>
+      <c r="C740" s="30"/>
+      <c r="D740" s="30"/>
+    </row>
+    <row r="741">
+      <c r="B741" s="30"/>
+      <c r="C741" s="30"/>
+      <c r="D741" s="30"/>
+    </row>
+    <row r="742">
+      <c r="B742" s="30"/>
+      <c r="C742" s="30"/>
+      <c r="D742" s="30"/>
+    </row>
+    <row r="743">
+      <c r="B743" s="30"/>
+      <c r="C743" s="30"/>
+      <c r="D743" s="30"/>
+    </row>
+    <row r="744">
+      <c r="B744" s="30"/>
+      <c r="C744" s="30"/>
+      <c r="D744" s="30"/>
+    </row>
+    <row r="745">
+      <c r="B745" s="30"/>
+      <c r="C745" s="30"/>
+      <c r="D745" s="30"/>
+    </row>
+    <row r="746">
+      <c r="B746" s="30"/>
+      <c r="C746" s="30"/>
+      <c r="D746" s="30"/>
+    </row>
+    <row r="747">
+      <c r="B747" s="30"/>
+      <c r="C747" s="30"/>
+      <c r="D747" s="30"/>
+    </row>
+    <row r="748">
+      <c r="B748" s="30"/>
+      <c r="C748" s="30"/>
+      <c r="D748" s="30"/>
+    </row>
+    <row r="749">
+      <c r="B749" s="30"/>
+      <c r="C749" s="30"/>
+      <c r="D749" s="30"/>
+    </row>
+    <row r="750">
+      <c r="B750" s="30"/>
+      <c r="C750" s="30"/>
+      <c r="D750" s="30"/>
+    </row>
+    <row r="751">
+      <c r="B751" s="30"/>
+      <c r="C751" s="30"/>
+      <c r="D751" s="30"/>
+    </row>
+    <row r="752">
+      <c r="B752" s="30"/>
+      <c r="C752" s="30"/>
+      <c r="D752" s="30"/>
+    </row>
+    <row r="753">
+      <c r="B753" s="30"/>
+      <c r="C753" s="30"/>
+      <c r="D753" s="30"/>
+    </row>
+    <row r="754">
+      <c r="B754" s="30"/>
+      <c r="C754" s="30"/>
+      <c r="D754" s="30"/>
+    </row>
+    <row r="755">
+      <c r="B755" s="30"/>
+      <c r="C755" s="30"/>
+      <c r="D755" s="30"/>
+    </row>
+    <row r="756">
+      <c r="B756" s="30"/>
+      <c r="C756" s="30"/>
+      <c r="D756" s="30"/>
+    </row>
+    <row r="757">
+      <c r="B757" s="30"/>
+      <c r="C757" s="30"/>
+      <c r="D757" s="30"/>
+    </row>
+    <row r="758">
+      <c r="B758" s="30"/>
+      <c r="C758" s="30"/>
+      <c r="D758" s="30"/>
+    </row>
+    <row r="759">
+      <c r="B759" s="30"/>
+      <c r="C759" s="30"/>
+      <c r="D759" s="30"/>
+    </row>
+    <row r="760">
+      <c r="B760" s="30"/>
+      <c r="C760" s="30"/>
+      <c r="D760" s="30"/>
+    </row>
+    <row r="761">
+      <c r="B761" s="30"/>
+      <c r="C761" s="30"/>
+      <c r="D761" s="30"/>
+    </row>
+    <row r="762">
+      <c r="B762" s="30"/>
+      <c r="C762" s="30"/>
+      <c r="D762" s="30"/>
+    </row>
+    <row r="763">
+      <c r="B763" s="30"/>
+      <c r="C763" s="30"/>
+      <c r="D763" s="30"/>
+    </row>
+    <row r="764">
+      <c r="B764" s="30"/>
+      <c r="C764" s="30"/>
+      <c r="D764" s="30"/>
+    </row>
+    <row r="765">
+      <c r="B765" s="30"/>
+      <c r="C765" s="30"/>
+      <c r="D765" s="30"/>
+    </row>
+    <row r="766">
+      <c r="B766" s="30"/>
+      <c r="C766" s="30"/>
+      <c r="D766" s="30"/>
+    </row>
+    <row r="767">
+      <c r="B767" s="30"/>
+      <c r="C767" s="30"/>
+      <c r="D767" s="30"/>
+    </row>
+    <row r="768">
+      <c r="B768" s="30"/>
+      <c r="C768" s="30"/>
+      <c r="D768" s="30"/>
+    </row>
+    <row r="769">
+      <c r="B769" s="30"/>
+      <c r="C769" s="30"/>
+      <c r="D769" s="30"/>
+    </row>
+    <row r="770">
+      <c r="B770" s="30"/>
+      <c r="C770" s="30"/>
+      <c r="D770" s="30"/>
+    </row>
+    <row r="771">
+      <c r="B771" s="30"/>
+      <c r="C771" s="30"/>
+      <c r="D771" s="30"/>
+    </row>
+    <row r="772">
+      <c r="B772" s="30"/>
+      <c r="C772" s="30"/>
+      <c r="D772" s="30"/>
+    </row>
+    <row r="773">
+      <c r="B773" s="30"/>
+      <c r="C773" s="30"/>
+      <c r="D773" s="30"/>
+    </row>
+    <row r="774">
+      <c r="B774" s="30"/>
+      <c r="C774" s="30"/>
+      <c r="D774" s="30"/>
+    </row>
+    <row r="775">
+      <c r="B775" s="30"/>
+      <c r="C775" s="30"/>
+      <c r="D775" s="30"/>
+    </row>
+    <row r="776">
+      <c r="B776" s="30"/>
+      <c r="C776" s="30"/>
+      <c r="D776" s="30"/>
+    </row>
+    <row r="777">
+      <c r="B777" s="30"/>
+      <c r="C777" s="30"/>
+      <c r="D777" s="30"/>
+    </row>
+    <row r="778">
+      <c r="B778" s="30"/>
+      <c r="C778" s="30"/>
+      <c r="D778" s="30"/>
+    </row>
+    <row r="779">
+      <c r="B779" s="30"/>
+      <c r="C779" s="30"/>
+      <c r="D779" s="30"/>
+    </row>
+    <row r="780">
+      <c r="B780" s="30"/>
+      <c r="C780" s="30"/>
+      <c r="D780" s="30"/>
+    </row>
+    <row r="781">
+      <c r="B781" s="30"/>
+      <c r="C781" s="30"/>
+      <c r="D781" s="30"/>
+    </row>
+    <row r="782">
+      <c r="B782" s="30"/>
+      <c r="C782" s="30"/>
+      <c r="D782" s="30"/>
+    </row>
+    <row r="783">
+      <c r="B783" s="30"/>
+      <c r="C783" s="30"/>
+      <c r="D783" s="30"/>
+    </row>
+    <row r="784">
+      <c r="B784" s="30"/>
+      <c r="C784" s="30"/>
+      <c r="D784" s="30"/>
+    </row>
+    <row r="785">
+      <c r="B785" s="30"/>
+      <c r="C785" s="30"/>
+      <c r="D785" s="30"/>
+    </row>
+    <row r="786">
+      <c r="B786" s="30"/>
+      <c r="C786" s="30"/>
+      <c r="D786" s="30"/>
+    </row>
+    <row r="787">
+      <c r="B787" s="30"/>
+      <c r="C787" s="30"/>
+      <c r="D787" s="30"/>
+    </row>
+    <row r="788">
+      <c r="B788" s="30"/>
+      <c r="C788" s="30"/>
+      <c r="D788" s="30"/>
+    </row>
+    <row r="789">
+      <c r="B789" s="30"/>
+      <c r="C789" s="30"/>
+      <c r="D789" s="30"/>
+    </row>
+    <row r="790">
+      <c r="B790" s="30"/>
+      <c r="C790" s="30"/>
+      <c r="D790" s="30"/>
+    </row>
+    <row r="791">
+      <c r="B791" s="30"/>
+      <c r="C791" s="30"/>
+      <c r="D791" s="30"/>
+    </row>
+    <row r="792">
+      <c r="B792" s="30"/>
+      <c r="C792" s="30"/>
+      <c r="D792" s="30"/>
+    </row>
+    <row r="793">
+      <c r="B793" s="30"/>
+      <c r="C793" s="30"/>
+      <c r="D793" s="30"/>
+    </row>
+    <row r="794">
+      <c r="B794" s="30"/>
+      <c r="C794" s="30"/>
+      <c r="D794" s="30"/>
+    </row>
+    <row r="795">
+      <c r="B795" s="30"/>
+      <c r="C795" s="30"/>
+      <c r="D795" s="30"/>
+    </row>
+    <row r="796">
+      <c r="B796" s="30"/>
+      <c r="C796" s="30"/>
+      <c r="D796" s="30"/>
+    </row>
+    <row r="797">
+      <c r="B797" s="30"/>
+      <c r="C797" s="30"/>
+      <c r="D797" s="30"/>
+    </row>
+    <row r="798">
+      <c r="B798" s="30"/>
+      <c r="C798" s="30"/>
+      <c r="D798" s="30"/>
+    </row>
+    <row r="799">
+      <c r="B799" s="30"/>
+      <c r="C799" s="30"/>
+      <c r="D799" s="30"/>
+    </row>
+    <row r="800">
+      <c r="B800" s="30"/>
+      <c r="C800" s="30"/>
+      <c r="D800" s="30"/>
+    </row>
+    <row r="801">
+      <c r="B801" s="30"/>
+      <c r="C801" s="30"/>
+      <c r="D801" s="30"/>
+    </row>
+    <row r="802">
+      <c r="B802" s="30"/>
+      <c r="C802" s="30"/>
+      <c r="D802" s="30"/>
+    </row>
+    <row r="803">
+      <c r="B803" s="30"/>
+      <c r="C803" s="30"/>
+      <c r="D803" s="30"/>
+    </row>
+    <row r="804">
+      <c r="B804" s="30"/>
+      <c r="C804" s="30"/>
+      <c r="D804" s="30"/>
+    </row>
+    <row r="805">
+      <c r="B805" s="30"/>
+      <c r="C805" s="30"/>
+      <c r="D805" s="30"/>
+    </row>
+    <row r="806">
+      <c r="B806" s="30"/>
+      <c r="C806" s="30"/>
+      <c r="D806" s="30"/>
+    </row>
+    <row r="807">
+      <c r="B807" s="30"/>
+      <c r="C807" s="30"/>
+      <c r="D807" s="30"/>
+    </row>
+    <row r="808">
+      <c r="B808" s="30"/>
+      <c r="C808" s="30"/>
+      <c r="D808" s="30"/>
+    </row>
+    <row r="809">
+      <c r="B809" s="30"/>
+      <c r="C809" s="30"/>
+      <c r="D809" s="30"/>
+    </row>
+    <row r="810">
+      <c r="B810" s="30"/>
+      <c r="C810" s="30"/>
+      <c r="D810" s="30"/>
+    </row>
+    <row r="811">
+      <c r="B811" s="30"/>
+      <c r="C811" s="30"/>
+      <c r="D811" s="30"/>
+    </row>
+    <row r="812">
+      <c r="B812" s="30"/>
+      <c r="C812" s="30"/>
+      <c r="D812" s="30"/>
+    </row>
+    <row r="813">
+      <c r="B813" s="30"/>
+      <c r="C813" s="30"/>
+      <c r="D813" s="30"/>
+    </row>
+    <row r="814">
+      <c r="B814" s="30"/>
+      <c r="C814" s="30"/>
+      <c r="D814" s="30"/>
+    </row>
+    <row r="815">
+      <c r="B815" s="30"/>
+      <c r="C815" s="30"/>
+      <c r="D815" s="30"/>
+    </row>
+    <row r="816">
+      <c r="B816" s="30"/>
+      <c r="C816" s="30"/>
+      <c r="D816" s="30"/>
+    </row>
+    <row r="817">
+      <c r="B817" s="30"/>
+      <c r="C817" s="30"/>
+      <c r="D817" s="30"/>
+    </row>
+    <row r="818">
+      <c r="B818" s="30"/>
+      <c r="C818" s="30"/>
+      <c r="D818" s="30"/>
+    </row>
+    <row r="819">
+      <c r="B819" s="30"/>
+      <c r="C819" s="30"/>
+      <c r="D819" s="30"/>
+    </row>
+    <row r="820">
+      <c r="B820" s="30"/>
+      <c r="C820" s="30"/>
+      <c r="D820" s="30"/>
+    </row>
+    <row r="821">
+      <c r="B821" s="30"/>
+      <c r="C821" s="30"/>
+      <c r="D821" s="30"/>
+    </row>
+    <row r="822">
+      <c r="B822" s="30"/>
+      <c r="C822" s="30"/>
+      <c r="D822" s="30"/>
+    </row>
+    <row r="823">
+      <c r="B823" s="30"/>
+      <c r="C823" s="30"/>
+      <c r="D823" s="30"/>
+    </row>
+    <row r="824">
+      <c r="B824" s="30"/>
+      <c r="C824" s="30"/>
+      <c r="D824" s="30"/>
+    </row>
+    <row r="825">
+      <c r="B825" s="30"/>
+      <c r="C825" s="30"/>
+      <c r="D825" s="30"/>
+    </row>
+    <row r="826">
+      <c r="B826" s="30"/>
+      <c r="C826" s="30"/>
+      <c r="D826" s="30"/>
+    </row>
+    <row r="827">
+      <c r="B827" s="30"/>
+      <c r="C827" s="30"/>
+      <c r="D827" s="30"/>
+    </row>
+    <row r="828">
+      <c r="B828" s="30"/>
+      <c r="C828" s="30"/>
+      <c r="D828" s="30"/>
+    </row>
+    <row r="829">
+      <c r="B829" s="30"/>
+      <c r="C829" s="30"/>
+      <c r="D829" s="30"/>
+    </row>
+    <row r="830">
+      <c r="B830" s="30"/>
+      <c r="C830" s="30"/>
+      <c r="D830" s="30"/>
+    </row>
+    <row r="831">
+      <c r="B831" s="30"/>
+      <c r="C831" s="30"/>
+      <c r="D831" s="30"/>
+    </row>
+    <row r="832">
+      <c r="B832" s="30"/>
+      <c r="C832" s="30"/>
+      <c r="D832" s="30"/>
+    </row>
+    <row r="833">
+      <c r="B833" s="30"/>
+      <c r="C833" s="30"/>
+      <c r="D833" s="30"/>
+    </row>
+    <row r="834">
+      <c r="B834" s="30"/>
+      <c r="C834" s="30"/>
+      <c r="D834" s="30"/>
+    </row>
+    <row r="835">
+      <c r="B835" s="30"/>
+      <c r="C835" s="30"/>
+      <c r="D835" s="30"/>
+    </row>
+    <row r="836">
+      <c r="B836" s="30"/>
+      <c r="C836" s="30"/>
+      <c r="D836" s="30"/>
+    </row>
+    <row r="837">
+      <c r="B837" s="30"/>
+      <c r="C837" s="30"/>
+      <c r="D837" s="30"/>
+    </row>
+    <row r="838">
+      <c r="B838" s="30"/>
+      <c r="C838" s="30"/>
+      <c r="D838" s="30"/>
+    </row>
+    <row r="839">
+      <c r="B839" s="30"/>
+      <c r="C839" s="30"/>
+      <c r="D839" s="30"/>
+    </row>
+    <row r="840">
+      <c r="B840" s="30"/>
+      <c r="C840" s="30"/>
+      <c r="D840" s="30"/>
+    </row>
+    <row r="841">
+      <c r="B841" s="30"/>
+      <c r="C841" s="30"/>
+      <c r="D841" s="30"/>
+    </row>
+    <row r="842">
+      <c r="B842" s="30"/>
+      <c r="C842" s="30"/>
+      <c r="D842" s="30"/>
+    </row>
+    <row r="843">
+      <c r="B843" s="30"/>
+      <c r="C843" s="30"/>
+      <c r="D843" s="30"/>
+    </row>
+    <row r="844">
+      <c r="B844" s="30"/>
+      <c r="C844" s="30"/>
+      <c r="D844" s="30"/>
+    </row>
+    <row r="845">
+      <c r="B845" s="30"/>
+      <c r="C845" s="30"/>
+      <c r="D845" s="30"/>
+    </row>
+    <row r="846">
+      <c r="B846" s="30"/>
+      <c r="C846" s="30"/>
+      <c r="D846" s="30"/>
+    </row>
+    <row r="847">
+      <c r="B847" s="30"/>
+      <c r="C847" s="30"/>
+      <c r="D847" s="30"/>
+    </row>
+    <row r="848">
+      <c r="B848" s="30"/>
+      <c r="C848" s="30"/>
+      <c r="D848" s="30"/>
+    </row>
+    <row r="849">
+      <c r="B849" s="30"/>
+      <c r="C849" s="30"/>
+      <c r="D849" s="30"/>
+    </row>
+    <row r="850">
+      <c r="B850" s="30"/>
+      <c r="C850" s="30"/>
+      <c r="D850" s="30"/>
+    </row>
+    <row r="851">
+      <c r="B851" s="30"/>
+      <c r="C851" s="30"/>
+      <c r="D851" s="30"/>
+    </row>
+    <row r="852">
+      <c r="B852" s="30"/>
+      <c r="C852" s="30"/>
+      <c r="D852" s="30"/>
+    </row>
+    <row r="853">
+      <c r="B853" s="30"/>
+      <c r="C853" s="30"/>
+      <c r="D853" s="30"/>
+    </row>
+    <row r="854">
+      <c r="B854" s="30"/>
+      <c r="C854" s="30"/>
+      <c r="D854" s="30"/>
+    </row>
+    <row r="855">
+      <c r="B855" s="30"/>
+      <c r="C855" s="30"/>
+      <c r="D855" s="30"/>
+    </row>
+    <row r="856">
+      <c r="B856" s="30"/>
+      <c r="C856" s="30"/>
+      <c r="D856" s="30"/>
+    </row>
+    <row r="857">
+      <c r="B857" s="30"/>
+      <c r="C857" s="30"/>
+      <c r="D857" s="30"/>
+    </row>
+    <row r="858">
+      <c r="B858" s="30"/>
+      <c r="C858" s="30"/>
+      <c r="D858" s="30"/>
+    </row>
+    <row r="859">
+      <c r="B859" s="30"/>
+      <c r="C859" s="30"/>
+      <c r="D859" s="30"/>
+    </row>
+    <row r="860">
+      <c r="B860" s="30"/>
+      <c r="C860" s="30"/>
+      <c r="D860" s="30"/>
+    </row>
+    <row r="861">
+      <c r="B861" s="30"/>
+      <c r="C861" s="30"/>
+      <c r="D861" s="30"/>
+    </row>
+    <row r="862">
+      <c r="B862" s="30"/>
+      <c r="C862" s="30"/>
+      <c r="D862" s="30"/>
+    </row>
+    <row r="863">
+      <c r="B863" s="30"/>
+      <c r="C863" s="30"/>
+      <c r="D863" s="30"/>
+    </row>
+    <row r="864">
+      <c r="B864" s="30"/>
+      <c r="C864" s="30"/>
+      <c r="D864" s="30"/>
+    </row>
+    <row r="865">
+      <c r="B865" s="30"/>
+      <c r="C865" s="30"/>
+      <c r="D865" s="30"/>
+    </row>
+    <row r="866">
+      <c r="B866" s="30"/>
+      <c r="C866" s="30"/>
+      <c r="D866" s="30"/>
+    </row>
+    <row r="867">
+      <c r="B867" s="30"/>
+      <c r="C867" s="30"/>
+      <c r="D867" s="30"/>
+    </row>
+    <row r="868">
+      <c r="B868" s="30"/>
+      <c r="C868" s="30"/>
+      <c r="D868" s="30"/>
+    </row>
+    <row r="869">
+      <c r="B869" s="30"/>
+      <c r="C869" s="30"/>
+      <c r="D869" s="30"/>
+    </row>
+    <row r="870">
+      <c r="B870" s="30"/>
+      <c r="C870" s="30"/>
+      <c r="D870" s="30"/>
+    </row>
+    <row r="871">
+      <c r="B871" s="30"/>
+      <c r="C871" s="30"/>
+      <c r="D871" s="30"/>
+    </row>
+    <row r="872">
+      <c r="B872" s="30"/>
+      <c r="C872" s="30"/>
+      <c r="D872" s="30"/>
+    </row>
+    <row r="873">
+      <c r="B873" s="30"/>
+      <c r="C873" s="30"/>
+      <c r="D873" s="30"/>
+    </row>
+    <row r="874">
+      <c r="B874" s="30"/>
+      <c r="C874" s="30"/>
+      <c r="D874" s="30"/>
+    </row>
+    <row r="875">
+      <c r="B875" s="30"/>
+      <c r="C875" s="30"/>
+      <c r="D875" s="30"/>
+    </row>
+    <row r="876">
+      <c r="B876" s="30"/>
+      <c r="C876" s="30"/>
+      <c r="D876" s="30"/>
+    </row>
+    <row r="877">
+      <c r="B877" s="30"/>
+      <c r="C877" s="30"/>
+      <c r="D877" s="30"/>
+    </row>
+    <row r="878">
+      <c r="B878" s="30"/>
+      <c r="C878" s="30"/>
+      <c r="D878" s="30"/>
+    </row>
+    <row r="879">
+      <c r="B879" s="30"/>
+      <c r="C879" s="30"/>
+      <c r="D879" s="30"/>
+    </row>
+    <row r="880">
+      <c r="B880" s="30"/>
+      <c r="C880" s="30"/>
+      <c r="D880" s="30"/>
+    </row>
+    <row r="881">
+      <c r="B881" s="30"/>
+      <c r="C881" s="30"/>
+      <c r="D881" s="30"/>
+    </row>
+    <row r="882">
+      <c r="B882" s="30"/>
+      <c r="C882" s="30"/>
+      <c r="D882" s="30"/>
+    </row>
+    <row r="883">
+      <c r="B883" s="30"/>
+      <c r="C883" s="30"/>
+      <c r="D883" s="30"/>
+    </row>
+    <row r="884">
+      <c r="B884" s="30"/>
+      <c r="C884" s="30"/>
+      <c r="D884" s="30"/>
+    </row>
+    <row r="885">
+      <c r="B885" s="30"/>
+      <c r="C885" s="30"/>
+      <c r="D885" s="30"/>
+    </row>
+    <row r="886">
+      <c r="B886" s="30"/>
+      <c r="C886" s="30"/>
+      <c r="D886" s="30"/>
+    </row>
+    <row r="887">
+      <c r="B887" s="30"/>
+      <c r="C887" s="30"/>
+      <c r="D887" s="30"/>
+    </row>
+    <row r="888">
+      <c r="B888" s="30"/>
+      <c r="C888" s="30"/>
+      <c r="D888" s="30"/>
+    </row>
+    <row r="889">
+      <c r="B889" s="30"/>
+      <c r="C889" s="30"/>
+      <c r="D889" s="30"/>
+    </row>
+    <row r="890">
+      <c r="B890" s="30"/>
+      <c r="C890" s="30"/>
+      <c r="D890" s="30"/>
+    </row>
+    <row r="891">
+      <c r="B891" s="30"/>
+      <c r="C891" s="30"/>
+      <c r="D891" s="30"/>
+    </row>
+    <row r="892">
+      <c r="B892" s="30"/>
+      <c r="C892" s="30"/>
+      <c r="D892" s="30"/>
+    </row>
+    <row r="893">
+      <c r="B893" s="30"/>
+      <c r="C893" s="30"/>
+      <c r="D893" s="30"/>
+    </row>
+    <row r="894">
+      <c r="B894" s="30"/>
+      <c r="C894" s="30"/>
+      <c r="D894" s="30"/>
+    </row>
+    <row r="895">
+      <c r="B895" s="30"/>
+      <c r="C895" s="30"/>
+      <c r="D895" s="30"/>
+    </row>
+    <row r="896">
+      <c r="B896" s="30"/>
+      <c r="C896" s="30"/>
+      <c r="D896" s="30"/>
+    </row>
+    <row r="897">
+      <c r="B897" s="30"/>
+      <c r="C897" s="30"/>
+      <c r="D897" s="30"/>
+    </row>
+    <row r="898">
+      <c r="B898" s="30"/>
+      <c r="C898" s="30"/>
+      <c r="D898" s="30"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="9.43"/>
+    <col customWidth="1" min="2" max="2" width="6.43"/>
+    <col customWidth="1" min="3" max="3" width="26.29"/>
+    <col customWidth="1" min="4" max="4" width="100.14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="34"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="34"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="34"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="34"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="34"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="34"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="36">
+        <v>16.0</v>
+      </c>
+      <c r="D19" s="34"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="34"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="36">
+        <v>16.0</v>
+      </c>
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="36">
+        <v>626.0</v>
+      </c>
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="34"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="34"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="9.43"/>
+    <col customWidth="1" min="2" max="2" width="6.43"/>
+    <col customWidth="1" min="3" max="3" width="34.57"/>
+    <col customWidth="1" min="4" max="4" width="100.14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="39"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="39"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="39"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="39"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="39"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="39"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="39"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="39"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="39"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="39"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="39"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="39"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="39"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="39"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="39"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="39"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="39"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="39"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="39"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="39"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="39"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="23">
+        <v>21.0</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="39"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="39"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="39"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="23">
+        <v>21.0</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="39"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="23">
+        <v>211.0</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="D28" s="39"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="39"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="39"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="39"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="30"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="30"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="30"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="30"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="30"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="30"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="30"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="30"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="30"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="30"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="30"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="30"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="30"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="30"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="30"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="30"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="30"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="30"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="30"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="30"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="30"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="30"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="30"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="30"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="30"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="30"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="30"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="30"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="30"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="30"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="30"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="30"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -888,162 +6816,131 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>40</v>
+      <c r="A1" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="30"/>
+      <c r="A2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="34"/>
     </row>
     <row r="3">
-      <c r="A3" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="31"/>
+      <c r="A3" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="34"/>
     </row>
     <row r="4">
-      <c r="A4" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>46</v>
+      <c r="A4" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>49</v>
+      <c r="A5" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>51</v>
+      <c r="A6" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="30"/>
+        <v>77</v>
+      </c>
+      <c r="D7" s="34"/>
     </row>
     <row r="8">
-      <c r="A8" s="27" t="s">
-        <v>41</v>
+      <c r="A8" s="33" t="s">
+        <v>60</v>
       </c>
       <c r="B8" s="36">
         <v>2.0</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9">
-      <c r="A9" s="34" t="s">
-        <v>47</v>
+      <c r="A9" s="37" t="s">
+        <v>78</v>
       </c>
       <c r="B9" s="36">
         <v>2.0</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10">
-      <c r="A10" s="32" t="s">
-        <v>44</v>
+      <c r="A10" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="B10" s="36">
         <v>1.0</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11">
       <c r="A11" s="35" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B11" s="36">
         <v>5.0</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12">
       <c r="A12" s="35" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B12" s="36">
         <v>6.0</v>
       </c>
-      <c r="D12" s="31"/>
+      <c r="D12" s="34"/>
     </row>
     <row r="13">
-      <c r="A13" s="28"/>
-      <c r="D13" s="31"/>
+      <c r="D13" s="34"/>
     </row>
     <row r="14">
-      <c r="A14" s="28"/>
-      <c r="D14" s="31"/>
+      <c r="D14" s="34"/>
     </row>
     <row r="15">
-      <c r="A15" s="28"/>
-      <c r="D15" s="31"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="28"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="28"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="28"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="28"/>
+      <c r="D15" s="34"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>